--- a/Templates/川西/4质检报告模版.xlsx
+++ b/Templates/川西/4质检报告模版.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjamin_tian/Desktop/天济明工程文件/输出模版/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyang\Desktop\GenTemplateBJ-main\Templates\川西\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D575C4EA-05F9-AD43-8B84-48E3F090BC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0AEE756-31E7-4381-BED3-5BACAEE14666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7040" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="990" windowWidth="16540" windowHeight="14130" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4号站757个" sheetId="1" state="veryHidden" r:id="rId1"/>
@@ -39,8 +39,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -777,7 +775,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3087,7 +3085,7 @@
       <selection activeCell="F92" sqref="F92:G146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
@@ -3100,7 +3098,7 @@
     <col min="15" max="15" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3123,7 +3121,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="2" spans="1:20" hidden="1">
+    <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3166,7 +3164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20" hidden="1">
+    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3209,7 +3207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:20" hidden="1">
+    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -3252,7 +3250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:20" hidden="1">
+    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -3295,7 +3293,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:20" hidden="1">
+    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3338,7 +3336,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:20" hidden="1">
+    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -3381,7 +3379,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:20" hidden="1">
+    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -3417,7 +3415,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:20" hidden="1">
+    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -3456,7 +3454,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:20" hidden="1">
+    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -3495,7 +3493,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:20" hidden="1">
+    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -3534,7 +3532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:20" hidden="1">
+    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -3573,7 +3571,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:20" hidden="1">
+    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -3612,7 +3610,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:20" hidden="1">
+    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -3651,7 +3649,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:20" hidden="1">
+    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -3687,7 +3685,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:20" hidden="1">
+    <row r="16" spans="1:20" ht="14.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -3732,7 +3730,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:20" hidden="1">
+    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -3777,7 +3775,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:20" hidden="1">
+    <row r="18" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -3822,7 +3820,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:20" hidden="1">
+    <row r="19" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -3867,7 +3865,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:20" hidden="1">
+    <row r="20" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -3912,7 +3910,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:20" hidden="1">
+    <row r="21" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -3957,7 +3955,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:20" hidden="1">
+    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -4002,7 +4000,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:20" hidden="1">
+    <row r="23" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -4047,7 +4045,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:20" hidden="1">
+    <row r="24" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -4092,7 +4090,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:20" hidden="1">
+    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -4137,7 +4135,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:20" hidden="1">
+    <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -4173,7 +4171,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:20" hidden="1">
+    <row r="27" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -4209,7 +4207,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:20" hidden="1">
+    <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -4245,7 +4243,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:20" hidden="1">
+    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -4281,7 +4279,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:20" hidden="1">
+    <row r="30" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -4317,7 +4315,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:20" hidden="1">
+    <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -4353,7 +4351,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:20" hidden="1">
+    <row r="32" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -4389,7 +4387,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:20" hidden="1">
+    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -4425,7 +4423,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:20" hidden="1">
+    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -4461,7 +4459,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:20" hidden="1">
+    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -4497,7 +4495,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:20" hidden="1">
+    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -4533,7 +4531,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:20" hidden="1">
+    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -4569,7 +4567,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:20" hidden="1">
+    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -4605,7 +4603,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:20" hidden="1">
+    <row r="39" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -4641,7 +4639,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:20" hidden="1">
+    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -4677,7 +4675,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:20" hidden="1">
+    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -4713,7 +4711,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:20" hidden="1">
+    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -4749,7 +4747,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:20" hidden="1">
+    <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -4785,7 +4783,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:20" hidden="1">
+    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>54</v>
       </c>
@@ -4821,7 +4819,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:20" hidden="1">
+    <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -4857,7 +4855,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:20" hidden="1">
+    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -4893,7 +4891,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:20" hidden="1">
+    <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -4929,7 +4927,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:20" hidden="1">
+    <row r="48" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -4965,7 +4963,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:20" hidden="1">
+    <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>59</v>
       </c>
@@ -5001,7 +4999,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:20" hidden="1">
+    <row r="50" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>60</v>
       </c>
@@ -5037,7 +5035,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:20" hidden="1">
+    <row r="51" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>61</v>
       </c>
@@ -5073,7 +5071,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:20" hidden="1">
+    <row r="52" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>62</v>
       </c>
@@ -5109,7 +5107,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:20" hidden="1">
+    <row r="53" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>63</v>
       </c>
@@ -5145,7 +5143,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:20" hidden="1">
+    <row r="54" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -5181,7 +5179,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:20" hidden="1">
+    <row r="55" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -5217,7 +5215,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:20" hidden="1">
+    <row r="56" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>66</v>
       </c>
@@ -5253,7 +5251,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:20" hidden="1">
+    <row r="57" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>67</v>
       </c>
@@ -5289,7 +5287,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:20" hidden="1">
+    <row r="58" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>68</v>
       </c>
@@ -5325,7 +5323,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:20" hidden="1">
+    <row r="59" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>69</v>
       </c>
@@ -5361,7 +5359,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:20" hidden="1">
+    <row r="60" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>70</v>
       </c>
@@ -5397,7 +5395,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:20" hidden="1">
+    <row r="61" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>71</v>
       </c>
@@ -5433,7 +5431,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:20" hidden="1">
+    <row r="62" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>72</v>
       </c>
@@ -5469,7 +5467,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:20" hidden="1">
+    <row r="63" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>73</v>
       </c>
@@ -5505,7 +5503,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:20" hidden="1">
+    <row r="64" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>74</v>
       </c>
@@ -5541,7 +5539,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:20" hidden="1">
+    <row r="65" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>75</v>
       </c>
@@ -5577,7 +5575,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:20" hidden="1">
+    <row r="66" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>76</v>
       </c>
@@ -5613,7 +5611,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:20" hidden="1">
+    <row r="67" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>77</v>
       </c>
@@ -5649,7 +5647,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:20" hidden="1">
+    <row r="68" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>78</v>
       </c>
@@ -5685,7 +5683,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:20" hidden="1">
+    <row r="69" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>79</v>
       </c>
@@ -5721,7 +5719,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:20" hidden="1">
+    <row r="70" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>80</v>
       </c>
@@ -5757,7 +5755,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:20" hidden="1">
+    <row r="71" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>81</v>
       </c>
@@ -5793,7 +5791,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:20" hidden="1">
+    <row r="72" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>82</v>
       </c>
@@ -5829,7 +5827,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:20" hidden="1">
+    <row r="73" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>83</v>
       </c>
@@ -5865,7 +5863,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:20" hidden="1">
+    <row r="74" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>84</v>
       </c>
@@ -5901,7 +5899,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:20" hidden="1">
+    <row r="75" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>85</v>
       </c>
@@ -5937,7 +5935,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:20" hidden="1">
+    <row r="76" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>86</v>
       </c>
@@ -5973,7 +5971,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:20" hidden="1">
+    <row r="77" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>87</v>
       </c>
@@ -6009,7 +6007,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:20" hidden="1">
+    <row r="78" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>88</v>
       </c>
@@ -6045,7 +6043,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:20" hidden="1">
+    <row r="79" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>89</v>
       </c>
@@ -6081,7 +6079,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:20" hidden="1">
+    <row r="80" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>90</v>
       </c>
@@ -6117,7 +6115,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:20" hidden="1">
+    <row r="81" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>91</v>
       </c>
@@ -6153,7 +6151,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:20" hidden="1">
+    <row r="82" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>92</v>
       </c>
@@ -6189,7 +6187,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:20" hidden="1">
+    <row r="83" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>93</v>
       </c>
@@ -6225,7 +6223,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:20" hidden="1">
+    <row r="84" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>94</v>
       </c>
@@ -6261,7 +6259,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:20" hidden="1">
+    <row r="85" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>95</v>
       </c>
@@ -6297,7 +6295,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:20" hidden="1">
+    <row r="86" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>96</v>
       </c>
@@ -6333,7 +6331,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:20" hidden="1">
+    <row r="87" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>97</v>
       </c>
@@ -6369,7 +6367,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:20" hidden="1">
+    <row r="88" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>98</v>
       </c>
@@ -6405,7 +6403,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:20" hidden="1">
+    <row r="89" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>99</v>
       </c>
@@ -6441,7 +6439,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:20" hidden="1">
+    <row r="90" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>100</v>
       </c>
@@ -6477,7 +6475,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:20" hidden="1">
+    <row r="91" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>101</v>
       </c>
@@ -6513,7 +6511,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:20">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>102</v>
       </c>
@@ -6549,7 +6547,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:20" hidden="1">
+    <row r="93" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>103</v>
       </c>
@@ -6585,7 +6583,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:20" hidden="1">
+    <row r="94" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>104</v>
       </c>
@@ -6621,7 +6619,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:20" hidden="1">
+    <row r="95" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>105</v>
       </c>
@@ -6657,7 +6655,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:20">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>106</v>
       </c>
@@ -6693,7 +6691,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:20" hidden="1">
+    <row r="97" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>107</v>
       </c>
@@ -6729,7 +6727,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:20" hidden="1">
+    <row r="98" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>108</v>
       </c>
@@ -6765,7 +6763,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:20">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>109</v>
       </c>
@@ -6801,7 +6799,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:20">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>110</v>
       </c>
@@ -6837,7 +6835,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:20" hidden="1">
+    <row r="101" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>111</v>
       </c>
@@ -6873,7 +6871,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:20">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>112</v>
       </c>
@@ -6909,7 +6907,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:20">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>113</v>
       </c>
@@ -6945,7 +6943,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:20" hidden="1">
+    <row r="104" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>114</v>
       </c>
@@ -6981,7 +6979,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:20">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>114</v>
       </c>
@@ -7017,7 +7015,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:20" hidden="1">
+    <row r="106" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>115</v>
       </c>
@@ -7053,7 +7051,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:20">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>116</v>
       </c>
@@ -7089,7 +7087,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:20" hidden="1">
+    <row r="108" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>117</v>
       </c>
@@ -7125,7 +7123,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:20">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>118</v>
       </c>
@@ -7161,7 +7159,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:20">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>119</v>
       </c>
@@ -7197,7 +7195,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:20" hidden="1">
+    <row r="111" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>120</v>
       </c>
@@ -7233,7 +7231,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:20">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>121</v>
       </c>
@@ -7269,7 +7267,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:20" hidden="1">
+    <row r="113" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>122</v>
       </c>
@@ -7305,7 +7303,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:20" hidden="1">
+    <row r="114" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>123</v>
       </c>
@@ -7341,7 +7339,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:20">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>124</v>
       </c>
@@ -7377,7 +7375,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:20" hidden="1">
+    <row r="116" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>125</v>
       </c>
@@ -7413,7 +7411,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:20">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>126</v>
       </c>
@@ -7449,7 +7447,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:20">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>127</v>
       </c>
@@ -7485,7 +7483,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:20">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>128</v>
       </c>
@@ -7521,7 +7519,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:20" hidden="1">
+    <row r="120" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>129</v>
       </c>
@@ -7557,7 +7555,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:20">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>130</v>
       </c>
@@ -7593,7 +7591,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:20" hidden="1">
+    <row r="122" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>131</v>
       </c>
@@ -7629,7 +7627,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:20" hidden="1">
+    <row r="123" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>132</v>
       </c>
@@ -7665,7 +7663,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:20">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>133</v>
       </c>
@@ -7701,7 +7699,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:20" hidden="1">
+    <row r="125" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>134</v>
       </c>
@@ -7737,7 +7735,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:20">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>135</v>
       </c>
@@ -7773,7 +7771,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:20">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>136</v>
       </c>
@@ -7809,7 +7807,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:20">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>137</v>
       </c>
@@ -7845,7 +7843,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:20">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>138</v>
       </c>
@@ -7881,7 +7879,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:20" hidden="1">
+    <row r="130" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>139</v>
       </c>
@@ -7917,7 +7915,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:20">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>140</v>
       </c>
@@ -7953,7 +7951,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:20">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>141</v>
       </c>
@@ -7989,7 +7987,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:20">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>142</v>
       </c>
@@ -8025,7 +8023,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:20">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>143</v>
       </c>
@@ -8061,7 +8059,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:20">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>14</v>
       </c>
@@ -8097,7 +8095,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:20">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>16</v>
       </c>
@@ -8133,7 +8131,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:20">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>144</v>
       </c>
@@ -8169,7 +8167,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:20" hidden="1">
+    <row r="138" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>145</v>
       </c>
@@ -8205,7 +8203,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:20">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>146</v>
       </c>
@@ -8241,7 +8239,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:20">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>147</v>
       </c>
@@ -8277,7 +8275,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:20">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>148</v>
       </c>
@@ -8313,7 +8311,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:20">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>149</v>
       </c>
@@ -8349,7 +8347,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:20">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>150</v>
       </c>
@@ -8385,7 +8383,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:20">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>151</v>
       </c>
@@ -8421,7 +8419,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:20">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>152</v>
       </c>
@@ -8457,7 +8455,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:20">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>153</v>
       </c>
@@ -8493,7 +8491,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:20" hidden="1">
+    <row r="147" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>154</v>
       </c>
@@ -8541,9 +8539,9 @@
       <selection activeCell="F2" sqref="F2:G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="6:8">
+    <row r="2" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F2" t="s">
         <v>102</v>
       </c>
@@ -8554,7 +8552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="6:8">
+    <row r="3" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F3" t="s">
         <v>106</v>
       </c>
@@ -8565,7 +8563,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="6:8">
+    <row r="4" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F4" t="s">
         <v>109</v>
       </c>
@@ -8576,7 +8574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="6:8">
+    <row r="5" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F5" t="s">
         <v>110</v>
       </c>
@@ -8587,7 +8585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="6:8">
+    <row r="6" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F6" t="s">
         <v>112</v>
       </c>
@@ -8598,7 +8596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="6:8">
+    <row r="7" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
         <v>113</v>
       </c>
@@ -8609,7 +8607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="6:8">
+    <row r="8" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F8" t="s">
         <v>115</v>
       </c>
@@ -8620,7 +8618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="6:8">
+    <row r="9" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F9" t="s">
         <v>117</v>
       </c>
@@ -8631,7 +8629,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="6:8">
+    <row r="10" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F10" t="s">
         <v>119</v>
       </c>
@@ -8642,7 +8640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="6:8">
+    <row r="11" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F11" t="s">
         <v>120</v>
       </c>
@@ -8653,7 +8651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="6:8">
+    <row r="12" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F12" t="s">
         <v>122</v>
       </c>
@@ -8664,7 +8662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="6:8">
+    <row r="13" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F13" t="s">
         <v>125</v>
       </c>
@@ -8675,7 +8673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="6:8">
+    <row r="14" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F14" t="s">
         <v>127</v>
       </c>
@@ -8686,7 +8684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="6:8">
+    <row r="15" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F15" t="s">
         <v>128</v>
       </c>
@@ -8697,7 +8695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="6:8">
+    <row r="16" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F16" t="s">
         <v>129</v>
       </c>
@@ -8708,7 +8706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="6:8">
+    <row r="17" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F17" t="s">
         <v>131</v>
       </c>
@@ -8719,7 +8717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="6:8">
+    <row r="18" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F18" t="s">
         <v>134</v>
       </c>
@@ -8730,7 +8728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="6:8">
+    <row r="19" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F19" t="s">
         <v>136</v>
       </c>
@@ -8741,7 +8739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="6:8">
+    <row r="20" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F20" t="s">
         <v>137</v>
       </c>
@@ -8752,7 +8750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="6:8">
+    <row r="21" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F21" t="s">
         <v>138</v>
       </c>
@@ -8763,7 +8761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="6:8">
+    <row r="22" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F22" t="s">
         <v>139</v>
       </c>
@@ -8774,7 +8772,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="6:8">
+    <row r="23" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F23" t="s">
         <v>141</v>
       </c>
@@ -8785,7 +8783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="6:8">
+    <row r="24" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F24" t="s">
         <v>142</v>
       </c>
@@ -8796,7 +8794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="6:8">
+    <row r="25" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F25" t="s">
         <v>143</v>
       </c>
@@ -8807,7 +8805,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="6:8">
+    <row r="26" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F26" t="s">
         <v>14</v>
       </c>
@@ -8818,7 +8816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="6:8">
+    <row r="27" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F27" t="s">
         <v>16</v>
       </c>
@@ -8829,7 +8827,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="6:8">
+    <row r="28" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F28" t="s">
         <v>144</v>
       </c>
@@ -8840,7 +8838,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="6:8">
+    <row r="29" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F29" t="s">
         <v>145</v>
       </c>
@@ -8851,7 +8849,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="6:8">
+    <row r="30" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F30" t="s">
         <v>147</v>
       </c>
@@ -8862,7 +8860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="6:8">
+    <row r="31" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F31" t="s">
         <v>148</v>
       </c>
@@ -8873,7 +8871,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="6:8">
+    <row r="32" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F32" t="s">
         <v>149</v>
       </c>
@@ -8884,7 +8882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="6:8">
+    <row r="33" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F33" t="s">
         <v>150</v>
       </c>
@@ -8895,7 +8893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="6:8">
+    <row r="34" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F34" t="s">
         <v>151</v>
       </c>
@@ -8906,7 +8904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="6:8">
+    <row r="35" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F35" t="s">
         <v>152</v>
       </c>
@@ -8917,7 +8915,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="6:8">
+    <row r="36" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F36" t="s">
         <v>153</v>
       </c>
@@ -8928,7 +8926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="6:8">
+    <row r="37" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F37" t="s">
         <v>154</v>
       </c>
@@ -8959,7 +8957,7 @@
       <selection pane="bottomRight" activeCell="G1" sqref="G1:T1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.83203125" style="6" customWidth="1"/>
     <col min="2" max="2" width="29.83203125" style="6" customWidth="1"/>
@@ -9286,7 +9284,7 @@
     <col min="16125" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30.75" customHeight="1">
+    <row r="1" spans="1:34" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="65" t="s">
         <v>166</v>
       </c>
@@ -9295,7 +9293,7 @@
       <c r="D1" s="65"/>
       <c r="E1" s="65"/>
     </row>
-    <row r="2" spans="1:34" ht="13" customHeight="1">
+    <row r="2" spans="1:34" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -9303,14 +9301,14 @@
       <c r="E2" s="7"/>
       <c r="N2" s="7"/>
     </row>
-    <row r="3" spans="1:34" s="8" customFormat="1" ht="24" customHeight="1" thickBot="1">
+    <row r="3" spans="1:34" s="8" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="66" t="s">
         <v>167</v>
       </c>
       <c r="B3" s="66"/>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:34" ht="24" customHeight="1">
+    <row r="4" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>168</v>
       </c>
@@ -9323,7 +9321,7 @@
       <c r="F4" s="67"/>
       <c r="G4" s="24"/>
     </row>
-    <row r="5" spans="1:34" ht="24" customHeight="1">
+    <row r="5" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>169</v>
       </c>
@@ -9336,7 +9334,7 @@
       <c r="F5" s="64"/>
       <c r="G5" s="24"/>
     </row>
-    <row r="6" spans="1:34" ht="33.75" customHeight="1">
+    <row r="6" spans="1:34" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>171</v>
       </c>
@@ -9349,7 +9347,7 @@
       <c r="F6" s="64"/>
       <c r="G6" s="24"/>
     </row>
-    <row r="7" spans="1:34" ht="41" customHeight="1">
+    <row r="7" spans="1:34" ht="41" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>173</v>
       </c>
@@ -9365,7 +9363,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="36" customHeight="1">
+    <row r="8" spans="1:34" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>175</v>
       </c>
@@ -9412,7 +9410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:34" ht="20" customHeight="1">
+    <row r="9" spans="1:34" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="49" t="s">
         <v>181</v>
       </c>
@@ -9502,7 +9500,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:34" ht="20" customHeight="1">
+    <row r="10" spans="1:34" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="50"/>
       <c r="B10" s="12" t="s">
         <v>6</v>
@@ -9593,7 +9591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34" ht="20" customHeight="1">
+    <row r="11" spans="1:34" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="50"/>
       <c r="B11" s="12" t="s">
         <v>8</v>
@@ -9684,7 +9682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34" ht="20" customHeight="1">
+    <row r="12" spans="1:34" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="50"/>
       <c r="B12" s="12" t="s">
         <v>9</v>
@@ -9775,7 +9773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="20" customHeight="1">
+    <row r="13" spans="1:34" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="50"/>
       <c r="B13" s="12" t="s">
         <v>10</v>
@@ -9866,7 +9864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="20" customHeight="1">
+    <row r="14" spans="1:34" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="50"/>
       <c r="B14" s="12" t="s">
         <v>11</v>
@@ -9957,7 +9955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34" ht="20" customHeight="1">
+    <row r="15" spans="1:34" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="50"/>
       <c r="B15" s="12" t="s">
         <v>12</v>
@@ -10048,7 +10046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34" ht="20" customHeight="1">
+    <row r="16" spans="1:34" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="50"/>
       <c r="B16" s="12" t="s">
         <v>13</v>
@@ -10109,7 +10107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="20" customHeight="1">
+    <row r="17" spans="1:31" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="50"/>
       <c r="B17" s="12" t="s">
         <v>15</v>
@@ -10188,7 +10186,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="20" customHeight="1">
+    <row r="18" spans="1:31" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="50"/>
       <c r="B18" s="12" t="s">
         <v>17</v>
@@ -10270,7 +10268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="20" customHeight="1">
+    <row r="19" spans="1:31" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="50"/>
       <c r="B19" s="12" t="s">
         <v>18</v>
@@ -10352,7 +10350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="20" customHeight="1">
+    <row r="20" spans="1:31" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="50"/>
       <c r="B20" s="12" t="s">
         <v>19</v>
@@ -10434,7 +10432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="20" customHeight="1">
+    <row r="21" spans="1:31" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="50"/>
       <c r="B21" s="12" t="s">
         <v>20</v>
@@ -10516,7 +10514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="20" customHeight="1">
+    <row r="22" spans="1:31" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="50"/>
       <c r="B22" s="12" t="s">
         <v>22</v>
@@ -10598,7 +10596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="20" customHeight="1">
+    <row r="23" spans="1:31" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="50"/>
       <c r="B23" s="12" t="s">
         <v>23</v>
@@ -10680,7 +10678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="20" customHeight="1">
+    <row r="24" spans="1:31" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="50"/>
       <c r="B24" s="12" t="s">
         <v>27</v>
@@ -10762,7 +10760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="20" customHeight="1">
+    <row r="25" spans="1:31" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="50"/>
       <c r="B25" s="12" t="s">
         <v>28</v>
@@ -10844,7 +10842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="20" customHeight="1">
+    <row r="26" spans="1:31" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="50"/>
       <c r="B26" s="12" t="s">
         <v>29</v>
@@ -10926,7 +10924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="20" customHeight="1">
+    <row r="27" spans="1:31" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="50"/>
       <c r="B27" s="12" t="s">
         <v>30</v>
@@ -10987,7 +10985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="20" customHeight="1">
+    <row r="28" spans="1:31" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="50"/>
       <c r="B28" s="12" t="s">
         <v>31</v>
@@ -11048,7 +11046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:31" ht="20" customHeight="1">
+    <row r="29" spans="1:31" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="50"/>
       <c r="B29" s="12" t="s">
         <v>32</v>
@@ -11109,7 +11107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="20" customHeight="1">
+    <row r="30" spans="1:31" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="50"/>
       <c r="B30" s="12" t="s">
         <v>33</v>
@@ -11170,7 +11168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:31" ht="20" customHeight="1">
+    <row r="31" spans="1:31" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="50"/>
       <c r="B31" s="12" t="s">
         <v>34</v>
@@ -11231,7 +11229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:31" ht="20" customHeight="1">
+    <row r="32" spans="1:31" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="50"/>
       <c r="B32" s="12" t="s">
         <v>35</v>
@@ -11292,7 +11290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="20" customHeight="1">
+    <row r="33" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="50"/>
       <c r="B33" s="12" t="s">
         <v>36</v>
@@ -11353,7 +11351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="20" customHeight="1">
+    <row r="34" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="50"/>
       <c r="B34" s="12" t="s">
         <v>37</v>
@@ -11414,7 +11412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="20" customHeight="1">
+    <row r="35" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="50"/>
       <c r="B35" s="12" t="s">
         <v>38</v>
@@ -11475,7 +11473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="20" customHeight="1">
+    <row r="36" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="50"/>
       <c r="B36" s="12" t="s">
         <v>39</v>
@@ -11536,7 +11534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="20" customHeight="1">
+    <row r="37" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="50"/>
       <c r="B37" s="12" t="s">
         <v>40</v>
@@ -11597,7 +11595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="20" customHeight="1">
+    <row r="38" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="50"/>
       <c r="B38" s="12" t="s">
         <v>41</v>
@@ -11658,7 +11656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="20" customHeight="1">
+    <row r="39" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="50"/>
       <c r="B39" s="12" t="s">
         <v>42</v>
@@ -11719,7 +11717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="20" customHeight="1">
+    <row r="40" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="50"/>
       <c r="B40" s="12" t="s">
         <v>43</v>
@@ -11780,7 +11778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="20" customHeight="1">
+    <row r="41" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="50"/>
       <c r="B41" s="12" t="s">
         <v>44</v>
@@ -11841,7 +11839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="20" customHeight="1">
+    <row r="42" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="50"/>
       <c r="B42" s="12" t="s">
         <v>45</v>
@@ -11902,7 +11900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="20" customHeight="1">
+    <row r="43" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="50"/>
       <c r="B43" s="12" t="s">
         <v>46</v>
@@ -11963,7 +11961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="20" customHeight="1">
+    <row r="44" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="50"/>
       <c r="B44" s="12" t="s">
         <v>47</v>
@@ -12024,7 +12022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="20" customHeight="1">
+    <row r="45" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="50"/>
       <c r="B45" s="12" t="s">
         <v>48</v>
@@ -12085,7 +12083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="20" customHeight="1">
+    <row r="46" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="50"/>
       <c r="B46" s="12" t="s">
         <v>49</v>
@@ -12146,7 +12144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="20" customHeight="1">
+    <row r="47" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="50"/>
       <c r="B47" s="12" t="s">
         <v>50</v>
@@ -12207,7 +12205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="20" customHeight="1">
+    <row r="48" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="50"/>
       <c r="B48" s="12" t="s">
         <v>51</v>
@@ -12268,7 +12266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="20" customHeight="1">
+    <row r="49" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="50"/>
       <c r="B49" s="12" t="s">
         <v>52</v>
@@ -12329,7 +12327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="20" customHeight="1">
+    <row r="50" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="50"/>
       <c r="B50" s="12" t="s">
         <v>53</v>
@@ -12390,7 +12388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="20" customHeight="1">
+    <row r="51" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="50"/>
       <c r="B51" s="12" t="s">
         <v>54</v>
@@ -12451,7 +12449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="20" customHeight="1">
+    <row r="52" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="50"/>
       <c r="B52" s="12" t="s">
         <v>55</v>
@@ -12512,7 +12510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="20" customHeight="1">
+    <row r="53" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="50"/>
       <c r="B53" s="12" t="s">
         <v>56</v>
@@ -12573,7 +12571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="20" customHeight="1">
+    <row r="54" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="50"/>
       <c r="B54" s="12" t="s">
         <v>57</v>
@@ -12634,7 +12632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="20" customHeight="1">
+    <row r="55" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="50"/>
       <c r="B55" s="12" t="s">
         <v>58</v>
@@ -12695,7 +12693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="20" customHeight="1">
+    <row r="56" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="50"/>
       <c r="B56" s="12" t="s">
         <v>59</v>
@@ -12756,7 +12754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="20" customHeight="1">
+    <row r="57" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="50"/>
       <c r="B57" s="12" t="s">
         <v>60</v>
@@ -12817,7 +12815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="20" customHeight="1">
+    <row r="58" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="50"/>
       <c r="B58" s="12" t="s">
         <v>61</v>
@@ -12878,7 +12876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="20" customHeight="1">
+    <row r="59" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="50"/>
       <c r="B59" s="12" t="s">
         <v>62</v>
@@ -12939,7 +12937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="20" customHeight="1">
+    <row r="60" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="50"/>
       <c r="B60" s="12" t="s">
         <v>63</v>
@@ -13000,7 +12998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="20" customHeight="1">
+    <row r="61" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="50"/>
       <c r="B61" s="12" t="s">
         <v>64</v>
@@ -13061,7 +13059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="20" customHeight="1">
+    <row r="62" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="50"/>
       <c r="B62" s="12" t="s">
         <v>65</v>
@@ -13122,7 +13120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="20" customHeight="1">
+    <row r="63" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="50"/>
       <c r="B63" s="12" t="s">
         <v>66</v>
@@ -13183,7 +13181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="20" customHeight="1">
+    <row r="64" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="50"/>
       <c r="B64" s="12" t="s">
         <v>67</v>
@@ -13244,7 +13242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="20" customHeight="1">
+    <row r="65" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="50"/>
       <c r="B65" s="12" t="s">
         <v>68</v>
@@ -13305,7 +13303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="20" customHeight="1">
+    <row r="66" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="50"/>
       <c r="B66" s="12" t="s">
         <v>69</v>
@@ -13366,7 +13364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="20" customHeight="1">
+    <row r="67" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="50"/>
       <c r="B67" s="12" t="s">
         <v>70</v>
@@ -13427,7 +13425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="20" customHeight="1">
+    <row r="68" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="50"/>
       <c r="B68" s="12" t="s">
         <v>71</v>
@@ -13488,7 +13486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="20" customHeight="1">
+    <row r="69" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="50"/>
       <c r="B69" s="12" t="s">
         <v>72</v>
@@ -13549,7 +13547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="20" customHeight="1">
+    <row r="70" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="50"/>
       <c r="B70" s="12" t="s">
         <v>73</v>
@@ -13610,7 +13608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="20" customHeight="1">
+    <row r="71" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="50"/>
       <c r="B71" s="12" t="s">
         <v>74</v>
@@ -13671,7 +13669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="20" customHeight="1">
+    <row r="72" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="50"/>
       <c r="B72" s="12" t="s">
         <v>75</v>
@@ -13732,7 +13730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="20" customHeight="1">
+    <row r="73" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="50"/>
       <c r="B73" s="12" t="s">
         <v>76</v>
@@ -13793,7 +13791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="20" customHeight="1">
+    <row r="74" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="50"/>
       <c r="B74" s="12" t="s">
         <v>77</v>
@@ -13854,7 +13852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="20" customHeight="1">
+    <row r="75" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="50"/>
       <c r="B75" s="12" t="s">
         <v>78</v>
@@ -13915,7 +13913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="20" customHeight="1">
+    <row r="76" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="50"/>
       <c r="B76" s="12" t="s">
         <v>79</v>
@@ -13976,7 +13974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="20" customHeight="1">
+    <row r="77" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="50"/>
       <c r="B77" s="12" t="s">
         <v>80</v>
@@ -14037,7 +14035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="20" customHeight="1">
+    <row r="78" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="50"/>
       <c r="B78" s="12" t="s">
         <v>81</v>
@@ -14098,7 +14096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="20" customHeight="1">
+    <row r="79" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="50"/>
       <c r="B79" s="12" t="s">
         <v>82</v>
@@ -14159,7 +14157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="20" customHeight="1">
+    <row r="80" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="50"/>
       <c r="B80" s="12" t="s">
         <v>83</v>
@@ -14220,7 +14218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="20" customHeight="1">
+    <row r="81" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="50"/>
       <c r="B81" s="12" t="s">
         <v>84</v>
@@ -14281,7 +14279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="20" customHeight="1">
+    <row r="82" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="50"/>
       <c r="B82" s="12" t="s">
         <v>85</v>
@@ -14342,7 +14340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="20" customHeight="1">
+    <row r="83" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="50"/>
       <c r="B83" s="12" t="s">
         <v>86</v>
@@ -14403,7 +14401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="20" customHeight="1">
+    <row r="84" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="50"/>
       <c r="B84" s="12" t="s">
         <v>87</v>
@@ -14464,7 +14462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="20" customHeight="1">
+    <row r="85" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="50"/>
       <c r="B85" s="12" t="s">
         <v>88</v>
@@ -14525,7 +14523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="20" customHeight="1">
+    <row r="86" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="50"/>
       <c r="B86" s="12" t="s">
         <v>89</v>
@@ -14586,7 +14584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="20" customHeight="1">
+    <row r="87" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="50"/>
       <c r="B87" s="12" t="s">
         <v>90</v>
@@ -14647,7 +14645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="20" customHeight="1">
+    <row r="88" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="50"/>
       <c r="B88" s="12" t="s">
         <v>91</v>
@@ -14708,7 +14706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="20" customHeight="1">
+    <row r="89" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="50"/>
       <c r="B89" s="12" t="s">
         <v>92</v>
@@ -14769,7 +14767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="20" customHeight="1">
+    <row r="90" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="50"/>
       <c r="B90" s="12" t="s">
         <v>93</v>
@@ -14830,7 +14828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="20" customHeight="1">
+    <row r="91" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="50"/>
       <c r="B91" s="12" t="s">
         <v>94</v>
@@ -14891,7 +14889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="20" customHeight="1">
+    <row r="92" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="50"/>
       <c r="B92" s="12" t="s">
         <v>95</v>
@@ -14952,7 +14950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="20" customHeight="1">
+    <row r="93" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="50"/>
       <c r="B93" s="12" t="s">
         <v>96</v>
@@ -15013,7 +15011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="20" customHeight="1">
+    <row r="94" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="50"/>
       <c r="B94" s="12" t="s">
         <v>97</v>
@@ -15074,7 +15072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="20" customHeight="1">
+    <row r="95" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="50"/>
       <c r="B95" s="12" t="s">
         <v>98</v>
@@ -15135,7 +15133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="20" customHeight="1">
+    <row r="96" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="50"/>
       <c r="B96" s="12" t="s">
         <v>99</v>
@@ -15196,7 +15194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="20" customHeight="1">
+    <row r="97" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="50"/>
       <c r="B97" s="12" t="s">
         <v>100</v>
@@ -15257,7 +15255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="20" customHeight="1">
+    <row r="98" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="50"/>
       <c r="B98" s="12" t="s">
         <v>101</v>
@@ -15318,7 +15316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="20" customHeight="1">
+    <row r="99" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="50"/>
       <c r="B99" s="12" t="s">
         <v>103</v>
@@ -15379,7 +15377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="20" customHeight="1">
+    <row r="100" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="50"/>
       <c r="B100" s="12" t="s">
         <v>104</v>
@@ -15440,7 +15438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="20" customHeight="1">
+    <row r="101" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="50"/>
       <c r="B101" s="12" t="s">
         <v>105</v>
@@ -15501,7 +15499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="20" customHeight="1">
+    <row r="102" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="50"/>
       <c r="B102" s="12" t="s">
         <v>106</v>
@@ -15562,7 +15560,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="20" customHeight="1">
+    <row r="103" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="50"/>
       <c r="B103" s="12" t="s">
         <v>107</v>
@@ -15623,7 +15621,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="20" customHeight="1">
+    <row r="104" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="50"/>
       <c r="B104" s="12" t="s">
         <v>108</v>
@@ -15684,7 +15682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="20" customHeight="1">
+    <row r="105" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="50"/>
       <c r="B105" s="12" t="s">
         <v>111</v>
@@ -15745,7 +15743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="20" customHeight="1">
+    <row r="106" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="50"/>
       <c r="B106" s="12" t="s">
         <v>114</v>
@@ -15806,7 +15804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="20" customHeight="1">
+    <row r="107" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="50"/>
       <c r="B107" s="12" t="s">
         <v>116</v>
@@ -15867,7 +15865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="20" customHeight="1">
+    <row r="108" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="50"/>
       <c r="B108" s="12" t="s">
         <v>118</v>
@@ -15928,7 +15926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="20" customHeight="1">
+    <row r="109" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="50"/>
       <c r="B109" s="12" t="s">
         <v>121</v>
@@ -15989,7 +15987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="20" customHeight="1">
+    <row r="110" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="50"/>
       <c r="B110" s="12" t="s">
         <v>123</v>
@@ -16050,7 +16048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="20" customHeight="1">
+    <row r="111" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="50"/>
       <c r="B111" s="12" t="s">
         <v>124</v>
@@ -16111,7 +16109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="20" customHeight="1">
+    <row r="112" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="50"/>
       <c r="B112" s="12" t="s">
         <v>126</v>
@@ -16172,7 +16170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="20" customHeight="1">
+    <row r="113" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="50"/>
       <c r="B113" s="12" t="s">
         <v>130</v>
@@ -16233,7 +16231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="20" customHeight="1">
+    <row r="114" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="50"/>
       <c r="B114" s="12" t="s">
         <v>132</v>
@@ -16294,7 +16292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="20" customHeight="1">
+    <row r="115" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="50"/>
       <c r="B115" s="12" t="s">
         <v>133</v>
@@ -16355,7 +16353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="20" customHeight="1">
+    <row r="116" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="50"/>
       <c r="B116" s="12" t="s">
         <v>134</v>
@@ -16416,7 +16414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="20" customHeight="1">
+    <row r="117" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="50"/>
       <c r="B117" s="12" t="s">
         <v>135</v>
@@ -16477,7 +16475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="20" customHeight="1">
+    <row r="118" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="50"/>
       <c r="B118" s="12" t="s">
         <v>137</v>
@@ -16538,7 +16536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="20" customHeight="1">
+    <row r="119" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="50"/>
       <c r="B119" s="12" t="s">
         <v>140</v>
@@ -16599,7 +16597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="20" customHeight="1">
+    <row r="120" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="50"/>
       <c r="B120" s="12" t="s">
         <v>146</v>
@@ -16660,7 +16658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="20" customHeight="1" thickBot="1">
+    <row r="121" spans="1:20" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="51"/>
       <c r="B121" s="16" t="s">
         <v>150</v>
@@ -16721,14 +16719,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="17" customHeight="1">
+    <row r="122" spans="1:20" ht="17" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="52"/>
       <c r="B122" s="52"/>
       <c r="C122" s="52"/>
       <c r="D122" s="52"/>
       <c r="E122" s="52"/>
     </row>
-    <row r="123" spans="1:20" ht="32" customHeight="1" thickBot="1">
+    <row r="123" spans="1:20" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="53" t="s">
         <v>186</v>
       </c>
@@ -16737,7 +16735,7 @@
       <c r="D123" s="53"/>
       <c r="E123" s="53"/>
     </row>
-    <row r="124" spans="1:20" ht="30.75" customHeight="1">
+    <row r="124" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="54" t="s">
         <v>187</v>
       </c>
@@ -16754,7 +16752,7 @@
       </c>
       <c r="G124" s="24"/>
     </row>
-    <row r="125" spans="1:20" ht="30.75" customHeight="1">
+    <row r="125" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="57" t="s">
         <v>191</v>
       </c>
@@ -16767,7 +16765,7 @@
       <c r="F125" s="13"/>
       <c r="G125" s="24"/>
     </row>
-    <row r="126" spans="1:20" ht="30.75" customHeight="1">
+    <row r="126" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="57" t="s">
         <v>194</v>
       </c>
@@ -16780,7 +16778,7 @@
       <c r="F126" s="13"/>
       <c r="G126" s="24"/>
     </row>
-    <row r="127" spans="1:20" ht="30.75" customHeight="1">
+    <row r="127" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="57" t="s">
         <v>196</v>
       </c>
@@ -16793,7 +16791,7 @@
       <c r="F127" s="13"/>
       <c r="G127" s="24"/>
     </row>
-    <row r="128" spans="1:20" ht="30.75" customHeight="1" thickBot="1">
+    <row r="128" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="61" t="s">
         <v>198</v>
       </c>
@@ -16804,7 +16802,7 @@
       <c r="F128" s="22"/>
       <c r="G128" s="24"/>
     </row>
-    <row r="129" spans="1:14" ht="30.75" customHeight="1">
+    <row r="129" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="23" t="s">
         <v>199</v>
       </c>
@@ -16858,16 +16856,16 @@
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <pane xSplit="1" ySplit="8" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="AC6" sqref="AC6"/>
+      <selection pane="bottomRight" activeCell="AH16" sqref="AH16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.83203125" style="6" customWidth="1"/>
     <col min="2" max="2" width="29.83203125" style="6" customWidth="1"/>
@@ -17196,7 +17194,7 @@
     <col min="16117" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30.75" customHeight="1">
+    <row r="1" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="65" t="s">
         <v>166</v>
       </c>
@@ -17205,7 +17203,7 @@
       <c r="D1" s="65"/>
       <c r="E1" s="65"/>
     </row>
-    <row r="2" spans="1:14" ht="13" customHeight="1">
+    <row r="2" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -17213,14 +17211,14 @@
       <c r="E2" s="7"/>
       <c r="N2" s="7"/>
     </row>
-    <row r="3" spans="1:14" s="8" customFormat="1" ht="24" customHeight="1" thickBot="1">
+    <row r="3" spans="1:14" s="8" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="66" t="s">
         <v>221</v>
       </c>
       <c r="B3" s="66"/>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:14" ht="24" customHeight="1">
+    <row r="4" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>168</v>
       </c>
@@ -17231,7 +17229,7 @@
       <c r="F4" s="67"/>
       <c r="G4" s="24"/>
     </row>
-    <row r="5" spans="1:14" ht="24" customHeight="1">
+    <row r="5" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>169</v>
       </c>
@@ -17242,7 +17240,7 @@
       <c r="F5" s="64"/>
       <c r="G5" s="24"/>
     </row>
-    <row r="6" spans="1:14" ht="33.75" customHeight="1">
+    <row r="6" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>171</v>
       </c>
@@ -17253,7 +17251,7 @@
       <c r="F6" s="64"/>
       <c r="G6" s="24"/>
     </row>
-    <row r="7" spans="1:14" ht="41" customHeight="1">
+    <row r="7" spans="1:14" ht="41" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>173</v>
       </c>
@@ -17267,7 +17265,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="36" customHeight="1">
+    <row r="8" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>175</v>
       </c>
@@ -17311,7 +17309,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="20" customHeight="1">
+    <row r="9" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="49"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -17321,7 +17319,7 @@
       <c r="G9" s="47"/>
       <c r="N9" s="12"/>
     </row>
-    <row r="10" spans="1:14" ht="20" customHeight="1">
+    <row r="10" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="50"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -17331,121 +17329,80 @@
       <c r="G10" s="47"/>
       <c r="N10" s="12"/>
     </row>
-    <row r="11" spans="1:14" ht="20" customHeight="1">
-      <c r="A11" s="50"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="47"/>
-      <c r="N11" s="12"/>
-    </row>
-    <row r="12" spans="1:14" ht="20" customHeight="1">
-      <c r="A12" s="50"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="47"/>
-      <c r="N12" s="12"/>
-    </row>
-    <row r="13" spans="1:14" ht="20" customHeight="1">
-      <c r="A13" s="50"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="47"/>
-      <c r="N13" s="12"/>
-    </row>
-    <row r="14" spans="1:14" ht="17" customHeight="1">
-      <c r="A14" s="68"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-    </row>
-    <row r="15" spans="1:14" ht="32" customHeight="1" thickBot="1">
-      <c r="A15" s="53" t="s">
+    <row r="11" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="68"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+    </row>
+    <row r="12" spans="1:14" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="53" t="s">
         <v>186</v>
       </c>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-    </row>
-    <row r="16" spans="1:14" ht="30.75" customHeight="1">
-      <c r="A16" s="54" t="s">
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+    </row>
+    <row r="13" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="54" t="s">
         <v>187</v>
       </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="56" t="s">
+      <c r="B13" s="55"/>
+      <c r="C13" s="56" t="s">
         <v>188</v>
       </c>
-      <c r="D16" s="56"/>
-      <c r="E16" s="19" t="s">
+      <c r="D13" s="56"/>
+      <c r="E13" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F13" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="G16" s="24"/>
-    </row>
-    <row r="17" spans="1:14" ht="30.75" customHeight="1">
-      <c r="A17" s="57"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="24"/>
-    </row>
-    <row r="18" spans="1:14" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A18" s="61" t="s">
+      <c r="G13" s="24"/>
+    </row>
+    <row r="14" spans="1:14" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="61" t="s">
         <v>198</v>
       </c>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="24"/>
-    </row>
-    <row r="19" spans="1:14" ht="30.75" customHeight="1">
-      <c r="A19" s="23" t="s">
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="24"/>
+    </row>
+    <row r="15" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="D19" s="24" t="s">
+      <c r="B15" s="24"/>
+      <c r="D15" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="23"/>
-      <c r="N19" s="24" t="s">
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="23"/>
+      <c r="N15" s="24" t="s">
         <v>201</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A9:A13"/>
+  <mergeCells count="13">
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="B6:F6"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A14:D14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -17467,19 +17424,19 @@
       <selection activeCell="C33" sqref="C33:C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.6640625" style="33" customWidth="1"/>
     <col min="2" max="2" width="4.33203125" style="45" customWidth="1"/>
     <col min="9" max="9" width="4.33203125" style="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1"/>
       <c r="B1"/>
       <c r="I1"/>
     </row>
-    <row r="2" spans="1:21" ht="16">
+    <row r="2" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A2" s="25"/>
       <c r="B2" s="25"/>
       <c r="I2" s="46"/>
@@ -17487,7 +17444,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="21">
+    <row r="3" spans="1:21" ht="20" x14ac:dyDescent="0.3">
       <c r="A3" s="26"/>
       <c r="B3" s="26"/>
       <c r="I3" s="25"/>
@@ -17522,7 +17479,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="16">
+    <row r="4" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A4"/>
       <c r="B4"/>
       <c r="I4" s="25"/>
@@ -17530,7 +17487,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="16">
+    <row r="5" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
         <v>203</v>
       </c>
@@ -17542,7 +17499,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="16">
+    <row r="6" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A6"/>
       <c r="B6"/>
       <c r="E6" s="25">
@@ -17576,7 +17533,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="16">
+    <row r="7" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A7" s="28">
         <v>2</v>
       </c>
@@ -17629,7 +17586,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="16">
+    <row r="8" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A8" s="28">
         <v>3</v>
       </c>
@@ -17682,7 +17639,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="16">
+    <row r="9" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A9" s="28">
         <v>3</v>
       </c>
@@ -17735,7 +17692,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="16">
+    <row r="10" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A10" s="28">
         <v>3</v>
       </c>
@@ -17788,7 +17745,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="16">
+    <row r="11" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A11" s="28">
         <v>2</v>
       </c>
@@ -17841,7 +17798,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="16">
+    <row r="12" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A12" s="28">
         <v>3</v>
       </c>
@@ -17891,7 +17848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="16">
+    <row r="13" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A13" s="28">
         <v>3</v>
       </c>
@@ -17903,7 +17860,7 @@
       </c>
       <c r="I13"/>
     </row>
-    <row r="14" spans="1:21" ht="16">
+    <row r="14" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A14" s="28">
         <v>3</v>
       </c>
@@ -17915,7 +17872,7 @@
       </c>
       <c r="I14"/>
     </row>
-    <row r="15" spans="1:21" ht="16">
+    <row r="15" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A15" s="28">
         <v>3</v>
       </c>
@@ -17927,7 +17884,7 @@
       </c>
       <c r="I15"/>
     </row>
-    <row r="16" spans="1:21" ht="16">
+    <row r="16" spans="1:21" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A16" s="28">
         <v>3</v>
       </c>
@@ -17939,7 +17896,7 @@
       </c>
       <c r="I16"/>
     </row>
-    <row r="17" spans="1:9" ht="16">
+    <row r="17" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A17" s="28">
         <v>2</v>
       </c>
@@ -17951,7 +17908,7 @@
       </c>
       <c r="I17"/>
     </row>
-    <row r="18" spans="1:9" ht="16">
+    <row r="18" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A18" s="28">
         <v>3</v>
       </c>
@@ -17963,7 +17920,7 @@
       </c>
       <c r="I18"/>
     </row>
-    <row r="19" spans="1:9" ht="16">
+    <row r="19" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A19" s="28">
         <v>3</v>
       </c>
@@ -17975,7 +17932,7 @@
       </c>
       <c r="I19"/>
     </row>
-    <row r="20" spans="1:9" ht="16">
+    <row r="20" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A20" s="28">
         <v>3</v>
       </c>
@@ -17987,7 +17944,7 @@
       </c>
       <c r="I20"/>
     </row>
-    <row r="21" spans="1:9" ht="16">
+    <row r="21" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A21" s="28">
         <v>3</v>
       </c>
@@ -17999,7 +17956,7 @@
       </c>
       <c r="I21"/>
     </row>
-    <row r="22" spans="1:9" ht="16">
+    <row r="22" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A22" s="28">
         <v>3</v>
       </c>
@@ -18011,7 +17968,7 @@
       </c>
       <c r="I22"/>
     </row>
-    <row r="23" spans="1:9" ht="16">
+    <row r="23" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A23" s="28">
         <v>2</v>
       </c>
@@ -18023,7 +17980,7 @@
       </c>
       <c r="I23"/>
     </row>
-    <row r="24" spans="1:9" ht="16">
+    <row r="24" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A24" s="28">
         <v>3</v>
       </c>
@@ -18035,7 +17992,7 @@
       </c>
       <c r="I24"/>
     </row>
-    <row r="25" spans="1:9" ht="16">
+    <row r="25" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A25" s="28">
         <v>3</v>
       </c>
@@ -18047,7 +18004,7 @@
       </c>
       <c r="I25"/>
     </row>
-    <row r="26" spans="1:9" ht="16">
+    <row r="26" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A26" s="28">
         <v>3</v>
       </c>
@@ -18059,7 +18016,7 @@
       </c>
       <c r="I26"/>
     </row>
-    <row r="27" spans="1:9" ht="16">
+    <row r="27" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A27" s="28">
         <v>3</v>
       </c>
@@ -18071,7 +18028,7 @@
       </c>
       <c r="I27"/>
     </row>
-    <row r="28" spans="1:9" ht="16">
+    <row r="28" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A28" s="28">
         <v>2</v>
       </c>
@@ -18083,7 +18040,7 @@
       </c>
       <c r="I28"/>
     </row>
-    <row r="29" spans="1:9" ht="16">
+    <row r="29" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A29" s="28">
         <v>3</v>
       </c>
@@ -18095,7 +18052,7 @@
       </c>
       <c r="I29"/>
     </row>
-    <row r="30" spans="1:9" ht="16">
+    <row r="30" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A30" s="28">
         <v>3</v>
       </c>
@@ -18107,7 +18064,7 @@
       </c>
       <c r="I30"/>
     </row>
-    <row r="31" spans="1:9" ht="16">
+    <row r="31" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A31" s="28">
         <v>2</v>
       </c>
@@ -18119,7 +18076,7 @@
       </c>
       <c r="I31"/>
     </row>
-    <row r="32" spans="1:9" ht="16">
+    <row r="32" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A32" s="28">
         <v>3</v>
       </c>
@@ -18131,7 +18088,7 @@
       </c>
       <c r="I32"/>
     </row>
-    <row r="33" spans="1:9" ht="16">
+    <row r="33" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A33" s="28">
         <v>3</v>
       </c>
@@ -18143,7 +18100,7 @@
       </c>
       <c r="I33"/>
     </row>
-    <row r="34" spans="1:9" ht="16">
+    <row r="34" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A34" s="28">
         <v>3</v>
       </c>
@@ -18155,7 +18112,7 @@
       </c>
       <c r="I34"/>
     </row>
-    <row r="35" spans="1:9" ht="16">
+    <row r="35" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A35" s="28">
         <v>3</v>
       </c>
@@ -18167,7 +18124,7 @@
       </c>
       <c r="I35"/>
     </row>
-    <row r="36" spans="1:9" ht="16">
+    <row r="36" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A36" s="28">
         <v>3</v>
       </c>
@@ -18179,7 +18136,7 @@
       </c>
       <c r="I36"/>
     </row>
-    <row r="37" spans="1:9" ht="16">
+    <row r="37" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A37" s="28">
         <v>3</v>
       </c>
@@ -18191,7 +18148,7 @@
       </c>
       <c r="I37"/>
     </row>
-    <row r="38" spans="1:9" ht="16">
+    <row r="38" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A38" s="28">
         <v>2</v>
       </c>
@@ -18203,7 +18160,7 @@
       </c>
       <c r="I38"/>
     </row>
-    <row r="39" spans="1:9" ht="16">
+    <row r="39" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A39" s="28">
         <v>2</v>
       </c>
@@ -18215,7 +18172,7 @@
       </c>
       <c r="I39"/>
     </row>
-    <row r="40" spans="1:9" ht="16">
+    <row r="40" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A40" s="28">
         <v>3</v>
       </c>
@@ -18227,7 +18184,7 @@
       </c>
       <c r="I40"/>
     </row>
-    <row r="41" spans="1:9" ht="16">
+    <row r="41" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A41" s="28">
         <v>3</v>
       </c>
@@ -18239,7 +18196,7 @@
       </c>
       <c r="I41"/>
     </row>
-    <row r="42" spans="1:9" ht="16">
+    <row r="42" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A42" s="28">
         <v>3</v>
       </c>
@@ -18251,7 +18208,7 @@
       </c>
       <c r="I42"/>
     </row>
-    <row r="43" spans="1:9" ht="16">
+    <row r="43" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A43" s="28">
         <v>3</v>
       </c>
@@ -18263,7 +18220,7 @@
       </c>
       <c r="I43"/>
     </row>
-    <row r="44" spans="1:9" ht="16">
+    <row r="44" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A44" s="28">
         <v>3</v>
       </c>
@@ -18275,7 +18232,7 @@
       </c>
       <c r="I44"/>
     </row>
-    <row r="45" spans="1:9" ht="16">
+    <row r="45" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A45" s="28">
         <v>3</v>
       </c>
@@ -18287,7 +18244,7 @@
       </c>
       <c r="I45"/>
     </row>
-    <row r="46" spans="1:9" ht="16">
+    <row r="46" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A46" s="28">
         <v>2</v>
       </c>
@@ -18299,7 +18256,7 @@
       </c>
       <c r="I46"/>
     </row>
-    <row r="47" spans="1:9" ht="16">
+    <row r="47" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A47" s="28">
         <v>3</v>
       </c>
@@ -18311,7 +18268,7 @@
       </c>
       <c r="I47"/>
     </row>
-    <row r="48" spans="1:9" ht="16">
+    <row r="48" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A48" s="28">
         <v>3</v>
       </c>
@@ -18323,7 +18280,7 @@
       </c>
       <c r="I48"/>
     </row>
-    <row r="49" spans="1:9" ht="16">
+    <row r="49" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A49" s="28">
         <v>3</v>
       </c>
@@ -18335,7 +18292,7 @@
       </c>
       <c r="I49"/>
     </row>
-    <row r="50" spans="1:9" ht="16">
+    <row r="50" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A50" s="28">
         <v>3</v>
       </c>
@@ -18347,7 +18304,7 @@
       </c>
       <c r="I50"/>
     </row>
-    <row r="51" spans="1:9" ht="16">
+    <row r="51" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A51" s="28">
         <v>3</v>
       </c>
@@ -18356,7 +18313,7 @@
       </c>
       <c r="I51"/>
     </row>
-    <row r="52" spans="1:9" ht="16">
+    <row r="52" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A52" s="28">
         <v>3</v>
       </c>
@@ -18365,7 +18322,7 @@
       </c>
       <c r="I52"/>
     </row>
-    <row r="53" spans="1:9" ht="16">
+    <row r="53" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A53" s="28">
         <v>3</v>
       </c>
@@ -18374,7 +18331,7 @@
       </c>
       <c r="I53"/>
     </row>
-    <row r="54" spans="1:9" ht="16">
+    <row r="54" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A54" s="28">
         <v>3</v>
       </c>
@@ -18383,7 +18340,7 @@
       </c>
       <c r="I54"/>
     </row>
-    <row r="55" spans="1:9" ht="16">
+    <row r="55" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A55" s="28">
         <v>3</v>
       </c>
@@ -18392,7 +18349,7 @@
       </c>
       <c r="I55"/>
     </row>
-    <row r="56" spans="1:9" ht="16">
+    <row r="56" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A56" s="28">
         <v>3</v>
       </c>
@@ -18401,7 +18358,7 @@
       </c>
       <c r="I56"/>
     </row>
-    <row r="57" spans="1:9" ht="16">
+    <row r="57" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A57" s="28">
         <v>3</v>
       </c>
@@ -18410,7 +18367,7 @@
       </c>
       <c r="I57"/>
     </row>
-    <row r="58" spans="1:9" ht="16">
+    <row r="58" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A58" s="28">
         <v>3</v>
       </c>
@@ -18419,7 +18376,7 @@
       </c>
       <c r="I58"/>
     </row>
-    <row r="59" spans="1:9" ht="16">
+    <row r="59" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A59" s="28">
         <v>3</v>
       </c>
@@ -18428,7 +18385,7 @@
       </c>
       <c r="I59"/>
     </row>
-    <row r="60" spans="1:9" ht="16">
+    <row r="60" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A60" s="28">
         <v>3</v>
       </c>
@@ -18437,7 +18394,7 @@
       </c>
       <c r="I60"/>
     </row>
-    <row r="61" spans="1:9" ht="16">
+    <row r="61" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A61" s="28">
         <v>3</v>
       </c>
@@ -18446,7 +18403,7 @@
       </c>
       <c r="I61"/>
     </row>
-    <row r="62" spans="1:9" ht="16">
+    <row r="62" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A62" s="28">
         <v>3</v>
       </c>
@@ -18455,7 +18412,7 @@
       </c>
       <c r="I62"/>
     </row>
-    <row r="63" spans="1:9" ht="16">
+    <row r="63" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A63" s="28">
         <v>3</v>
       </c>
@@ -18464,7 +18421,7 @@
       </c>
       <c r="I63"/>
     </row>
-    <row r="64" spans="1:9" ht="16">
+    <row r="64" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A64" s="28">
         <v>3</v>
       </c>
@@ -18473,7 +18430,7 @@
       </c>
       <c r="I64"/>
     </row>
-    <row r="65" spans="1:9" ht="16">
+    <row r="65" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A65" s="28">
         <v>3</v>
       </c>
@@ -18482,7 +18439,7 @@
       </c>
       <c r="I65"/>
     </row>
-    <row r="66" spans="1:9" ht="16">
+    <row r="66" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A66" s="28">
         <v>3</v>
       </c>
@@ -18491,7 +18448,7 @@
       </c>
       <c r="I66"/>
     </row>
-    <row r="67" spans="1:9" ht="16">
+    <row r="67" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A67" s="28">
         <v>3</v>
       </c>
@@ -18500,7 +18457,7 @@
       </c>
       <c r="I67"/>
     </row>
-    <row r="68" spans="1:9" ht="16">
+    <row r="68" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A68" s="28">
         <v>3</v>
       </c>
@@ -18509,12 +18466,12 @@
       </c>
       <c r="I68"/>
     </row>
-    <row r="69" spans="1:9" ht="15" thickBot="1">
+    <row r="69" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69"/>
       <c r="B69"/>
       <c r="I69"/>
     </row>
-    <row r="70" spans="1:9" ht="17" thickBot="1">
+    <row r="70" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="29">
         <v>3</v>
       </c>
@@ -18523,7 +18480,7 @@
       </c>
       <c r="I70"/>
     </row>
-    <row r="71" spans="1:9" ht="17" thickBot="1">
+    <row r="71" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="29">
         <v>3</v>
       </c>
@@ -18532,7 +18489,7 @@
       </c>
       <c r="I71"/>
     </row>
-    <row r="72" spans="1:9" ht="17" thickBot="1">
+    <row r="72" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="29">
         <v>3</v>
       </c>
@@ -18541,7 +18498,7 @@
       </c>
       <c r="I72"/>
     </row>
-    <row r="73" spans="1:9" ht="17" thickBot="1">
+    <row r="73" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="29">
         <v>3</v>
       </c>
@@ -18550,7 +18507,7 @@
       </c>
       <c r="I73"/>
     </row>
-    <row r="74" spans="1:9" ht="17" thickBot="1">
+    <row r="74" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="29">
         <v>3</v>
       </c>
@@ -18559,7 +18516,7 @@
       </c>
       <c r="I74"/>
     </row>
-    <row r="75" spans="1:9" ht="17" thickBot="1">
+    <row r="75" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="29">
         <v>3</v>
       </c>
@@ -18568,7 +18525,7 @@
       </c>
       <c r="I75"/>
     </row>
-    <row r="76" spans="1:9" ht="17" thickBot="1">
+    <row r="76" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="29">
         <v>3</v>
       </c>
@@ -18577,7 +18534,7 @@
       </c>
       <c r="I76"/>
     </row>
-    <row r="77" spans="1:9" ht="17" thickBot="1">
+    <row r="77" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="29">
         <v>3</v>
       </c>
@@ -18586,7 +18543,7 @@
       </c>
       <c r="I77"/>
     </row>
-    <row r="78" spans="1:9" ht="17" thickBot="1">
+    <row r="78" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="29">
         <v>3</v>
       </c>
@@ -18595,7 +18552,7 @@
       </c>
       <c r="I78"/>
     </row>
-    <row r="79" spans="1:9" ht="17" thickBot="1">
+    <row r="79" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="29">
         <v>3</v>
       </c>
@@ -18604,7 +18561,7 @@
       </c>
       <c r="I79"/>
     </row>
-    <row r="80" spans="1:9" ht="17" thickBot="1">
+    <row r="80" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="29">
         <v>3</v>
       </c>
@@ -18613,7 +18570,7 @@
       </c>
       <c r="I80"/>
     </row>
-    <row r="81" spans="1:9" ht="17" thickBot="1">
+    <row r="81" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="29">
         <v>3</v>
       </c>
@@ -18622,7 +18579,7 @@
       </c>
       <c r="I81"/>
     </row>
-    <row r="82" spans="1:9" ht="17" thickBot="1">
+    <row r="82" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="29">
         <v>3</v>
       </c>
@@ -18631,7 +18588,7 @@
       </c>
       <c r="I82"/>
     </row>
-    <row r="83" spans="1:9" ht="17" thickBot="1">
+    <row r="83" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="29">
         <v>3</v>
       </c>
@@ -18640,7 +18597,7 @@
       </c>
       <c r="I83"/>
     </row>
-    <row r="84" spans="1:9" ht="17" thickBot="1">
+    <row r="84" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="29">
         <v>3</v>
       </c>
@@ -18649,7 +18606,7 @@
       </c>
       <c r="I84"/>
     </row>
-    <row r="85" spans="1:9" ht="17" thickBot="1">
+    <row r="85" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="29">
         <v>3</v>
       </c>
@@ -18658,7 +18615,7 @@
       </c>
       <c r="I85"/>
     </row>
-    <row r="86" spans="1:9" ht="17" thickBot="1">
+    <row r="86" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="29">
         <v>3</v>
       </c>
@@ -18667,7 +18624,7 @@
       </c>
       <c r="I86"/>
     </row>
-    <row r="87" spans="1:9" ht="17" thickBot="1">
+    <row r="87" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="29">
         <v>3</v>
       </c>
@@ -18676,7 +18633,7 @@
       </c>
       <c r="I87"/>
     </row>
-    <row r="88" spans="1:9" ht="17" thickBot="1">
+    <row r="88" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="29">
         <v>3</v>
       </c>
@@ -18685,7 +18642,7 @@
       </c>
       <c r="I88"/>
     </row>
-    <row r="89" spans="1:9" ht="17" thickBot="1">
+    <row r="89" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="29">
         <v>3</v>
       </c>
@@ -18694,7 +18651,7 @@
       </c>
       <c r="I89"/>
     </row>
-    <row r="90" spans="1:9" ht="17" thickBot="1">
+    <row r="90" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="29">
         <v>3</v>
       </c>
@@ -18703,7 +18660,7 @@
       </c>
       <c r="I90"/>
     </row>
-    <row r="91" spans="1:9" ht="17" thickBot="1">
+    <row r="91" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="29">
         <v>3</v>
       </c>
@@ -18712,7 +18669,7 @@
       </c>
       <c r="I91"/>
     </row>
-    <row r="92" spans="1:9" ht="17" thickBot="1">
+    <row r="92" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="29">
         <v>3</v>
       </c>
@@ -18721,7 +18678,7 @@
       </c>
       <c r="I92"/>
     </row>
-    <row r="93" spans="1:9" ht="17" thickBot="1">
+    <row r="93" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="29">
         <v>3</v>
       </c>
@@ -18730,7 +18687,7 @@
       </c>
       <c r="I93"/>
     </row>
-    <row r="94" spans="1:9" ht="17" thickBot="1">
+    <row r="94" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="29">
         <v>3</v>
       </c>
@@ -18739,7 +18696,7 @@
       </c>
       <c r="I94"/>
     </row>
-    <row r="95" spans="1:9" ht="17" thickBot="1">
+    <row r="95" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="29">
         <v>3</v>
       </c>
@@ -18748,7 +18705,7 @@
       </c>
       <c r="I95"/>
     </row>
-    <row r="96" spans="1:9" ht="17" thickBot="1">
+    <row r="96" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="29">
         <v>3</v>
       </c>
@@ -18757,7 +18714,7 @@
       </c>
       <c r="I96"/>
     </row>
-    <row r="97" spans="1:9" ht="17" thickBot="1">
+    <row r="97" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="29">
         <v>3</v>
       </c>
@@ -18766,7 +18723,7 @@
       </c>
       <c r="I97"/>
     </row>
-    <row r="98" spans="1:9" ht="17" thickBot="1">
+    <row r="98" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="29">
         <v>3</v>
       </c>
@@ -18775,7 +18732,7 @@
       </c>
       <c r="I98"/>
     </row>
-    <row r="99" spans="1:9" ht="17" thickBot="1">
+    <row r="99" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="29">
         <v>3</v>
       </c>
@@ -18784,7 +18741,7 @@
       </c>
       <c r="I99"/>
     </row>
-    <row r="100" spans="1:9" ht="17" thickBot="1">
+    <row r="100" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="29">
         <v>3</v>
       </c>
@@ -18793,7 +18750,7 @@
       </c>
       <c r="I100"/>
     </row>
-    <row r="101" spans="1:9" ht="17" thickBot="1">
+    <row r="101" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="29">
         <v>3</v>
       </c>
@@ -18802,7 +18759,7 @@
       </c>
       <c r="I101"/>
     </row>
-    <row r="102" spans="1:9" ht="17" thickBot="1">
+    <row r="102" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="29">
         <v>3</v>
       </c>
@@ -18811,7 +18768,7 @@
       </c>
       <c r="I102"/>
     </row>
-    <row r="103" spans="1:9" ht="17" thickBot="1">
+    <row r="103" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="29">
         <v>3</v>
       </c>
@@ -18820,7 +18777,7 @@
       </c>
       <c r="I103"/>
     </row>
-    <row r="104" spans="1:9" ht="17" thickBot="1">
+    <row r="104" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="29">
         <v>3</v>
       </c>
@@ -18829,7 +18786,7 @@
       </c>
       <c r="I104"/>
     </row>
-    <row r="105" spans="1:9" ht="17" thickBot="1">
+    <row r="105" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="29">
         <v>3</v>
       </c>
@@ -18838,7 +18795,7 @@
       </c>
       <c r="I105"/>
     </row>
-    <row r="106" spans="1:9" ht="17" thickBot="1">
+    <row r="106" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="29">
         <v>3</v>
       </c>
@@ -18847,7 +18804,7 @@
       </c>
       <c r="I106"/>
     </row>
-    <row r="107" spans="1:9" ht="17" thickBot="1">
+    <row r="107" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="29">
         <v>3</v>
       </c>
@@ -18856,7 +18813,7 @@
       </c>
       <c r="I107"/>
     </row>
-    <row r="108" spans="1:9" ht="17" thickBot="1">
+    <row r="108" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="29">
         <v>3</v>
       </c>
@@ -18865,7 +18822,7 @@
       </c>
       <c r="I108"/>
     </row>
-    <row r="109" spans="1:9" ht="17" thickBot="1">
+    <row r="109" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="29">
         <v>3</v>
       </c>
@@ -18874,7 +18831,7 @@
       </c>
       <c r="I109"/>
     </row>
-    <row r="110" spans="1:9" ht="17" thickBot="1">
+    <row r="110" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="29">
         <v>3</v>
       </c>
@@ -18883,7 +18840,7 @@
       </c>
       <c r="I110"/>
     </row>
-    <row r="111" spans="1:9" ht="17" thickBot="1">
+    <row r="111" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="29">
         <v>3</v>
       </c>
@@ -18892,7 +18849,7 @@
       </c>
       <c r="I111"/>
     </row>
-    <row r="112" spans="1:9" ht="17" thickBot="1">
+    <row r="112" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="29">
         <v>3</v>
       </c>
@@ -18901,7 +18858,7 @@
       </c>
       <c r="I112"/>
     </row>
-    <row r="113" spans="1:9" ht="17" thickBot="1">
+    <row r="113" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="29">
         <v>3</v>
       </c>
@@ -18910,7 +18867,7 @@
       </c>
       <c r="I113"/>
     </row>
-    <row r="114" spans="1:9" ht="17" thickBot="1">
+    <row r="114" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="29">
         <v>3</v>
       </c>
@@ -18919,7 +18876,7 @@
       </c>
       <c r="I114"/>
     </row>
-    <row r="115" spans="1:9" ht="17" thickBot="1">
+    <row r="115" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="29">
         <v>3</v>
       </c>
@@ -18928,7 +18885,7 @@
       </c>
       <c r="I115"/>
     </row>
-    <row r="116" spans="1:9" ht="17" thickBot="1">
+    <row r="116" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="29">
         <v>3</v>
       </c>
@@ -18937,7 +18894,7 @@
       </c>
       <c r="I116"/>
     </row>
-    <row r="117" spans="1:9" ht="17" thickBot="1">
+    <row r="117" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="29">
         <v>3</v>
       </c>
@@ -18946,7 +18903,7 @@
       </c>
       <c r="I117"/>
     </row>
-    <row r="118" spans="1:9" ht="17" thickBot="1">
+    <row r="118" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="29">
         <v>3</v>
       </c>
@@ -18955,7 +18912,7 @@
       </c>
       <c r="I118"/>
     </row>
-    <row r="119" spans="1:9" ht="17" thickBot="1">
+    <row r="119" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="29">
         <v>3</v>
       </c>
@@ -18964,7 +18921,7 @@
       </c>
       <c r="I119"/>
     </row>
-    <row r="120" spans="1:9" ht="17" thickBot="1">
+    <row r="120" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="29">
         <v>3</v>
       </c>
@@ -18973,7 +18930,7 @@
       </c>
       <c r="I120"/>
     </row>
-    <row r="121" spans="1:9" ht="17" thickBot="1">
+    <row r="121" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="29">
         <v>3</v>
       </c>
@@ -18982,7 +18939,7 @@
       </c>
       <c r="I121"/>
     </row>
-    <row r="122" spans="1:9" ht="17" thickBot="1">
+    <row r="122" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="29">
         <v>3</v>
       </c>
@@ -18991,7 +18948,7 @@
       </c>
       <c r="I122"/>
     </row>
-    <row r="123" spans="1:9" ht="17" thickBot="1">
+    <row r="123" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="29">
         <v>3</v>
       </c>
@@ -19000,7 +18957,7 @@
       </c>
       <c r="I123"/>
     </row>
-    <row r="124" spans="1:9" ht="17" thickBot="1">
+    <row r="124" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="29">
         <v>3</v>
       </c>
@@ -19009,7 +18966,7 @@
       </c>
       <c r="I124"/>
     </row>
-    <row r="125" spans="1:9" ht="17" thickBot="1">
+    <row r="125" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="29">
         <v>3</v>
       </c>
@@ -19018,7 +18975,7 @@
       </c>
       <c r="I125"/>
     </row>
-    <row r="126" spans="1:9" ht="17" thickBot="1">
+    <row r="126" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="29">
         <v>3</v>
       </c>
@@ -19027,7 +18984,7 @@
       </c>
       <c r="I126"/>
     </row>
-    <row r="127" spans="1:9" ht="17" thickBot="1">
+    <row r="127" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="29">
         <v>3</v>
       </c>
@@ -19036,7 +18993,7 @@
       </c>
       <c r="I127"/>
     </row>
-    <row r="128" spans="1:9" ht="17" thickBot="1">
+    <row r="128" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="29">
         <v>3</v>
       </c>
@@ -19045,7 +19002,7 @@
       </c>
       <c r="I128"/>
     </row>
-    <row r="129" spans="1:9" ht="17" thickBot="1">
+    <row r="129" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="29">
         <v>3</v>
       </c>
@@ -19054,7 +19011,7 @@
       </c>
       <c r="I129"/>
     </row>
-    <row r="130" spans="1:9" ht="17" thickBot="1">
+    <row r="130" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="29">
         <v>3</v>
       </c>
@@ -19063,7 +19020,7 @@
       </c>
       <c r="I130"/>
     </row>
-    <row r="131" spans="1:9" ht="17" thickBot="1">
+    <row r="131" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="29">
         <v>3</v>
       </c>
@@ -19072,7 +19029,7 @@
       </c>
       <c r="I131"/>
     </row>
-    <row r="132" spans="1:9" ht="17" thickBot="1">
+    <row r="132" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="29">
         <v>3</v>
       </c>
@@ -19081,7 +19038,7 @@
       </c>
       <c r="I132"/>
     </row>
-    <row r="133" spans="1:9" ht="17" thickBot="1">
+    <row r="133" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="29">
         <v>3</v>
       </c>
@@ -19090,7 +19047,7 @@
       </c>
       <c r="I133"/>
     </row>
-    <row r="134" spans="1:9" ht="17" thickBot="1">
+    <row r="134" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="29">
         <v>3</v>
       </c>
@@ -19099,7 +19056,7 @@
       </c>
       <c r="I134"/>
     </row>
-    <row r="135" spans="1:9" ht="17" thickBot="1">
+    <row r="135" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="29">
         <v>3</v>
       </c>
@@ -19108,7 +19065,7 @@
       </c>
       <c r="I135"/>
     </row>
-    <row r="136" spans="1:9" ht="17" thickBot="1">
+    <row r="136" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="29">
         <v>3</v>
       </c>
@@ -19117,7 +19074,7 @@
       </c>
       <c r="I136"/>
     </row>
-    <row r="137" spans="1:9" ht="17" thickBot="1">
+    <row r="137" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="29">
         <v>3</v>
       </c>
@@ -19126,7 +19083,7 @@
       </c>
       <c r="I137"/>
     </row>
-    <row r="138" spans="1:9" ht="17" thickBot="1">
+    <row r="138" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="29">
         <v>3</v>
       </c>
@@ -19135,7 +19092,7 @@
       </c>
       <c r="I138"/>
     </row>
-    <row r="139" spans="1:9" ht="17" thickBot="1">
+    <row r="139" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="29">
         <v>3</v>
       </c>
@@ -19144,7 +19101,7 @@
       </c>
       <c r="I139"/>
     </row>
-    <row r="140" spans="1:9" ht="17" thickBot="1">
+    <row r="140" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="29">
         <v>3</v>
       </c>
@@ -19153,7 +19110,7 @@
       </c>
       <c r="I140"/>
     </row>
-    <row r="141" spans="1:9" ht="17" thickBot="1">
+    <row r="141" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="29">
         <v>3</v>
       </c>
@@ -19162,7 +19119,7 @@
       </c>
       <c r="I141"/>
     </row>
-    <row r="142" spans="1:9" ht="17" thickBot="1">
+    <row r="142" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="29">
         <v>3</v>
       </c>
@@ -19171,7 +19128,7 @@
       </c>
       <c r="I142"/>
     </row>
-    <row r="143" spans="1:9" ht="17" thickBot="1">
+    <row r="143" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="29">
         <v>3</v>
       </c>
@@ -19180,7 +19137,7 @@
       </c>
       <c r="I143"/>
     </row>
-    <row r="144" spans="1:9" ht="17" thickBot="1">
+    <row r="144" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="29">
         <v>3</v>
       </c>
@@ -19189,7 +19146,7 @@
       </c>
       <c r="I144"/>
     </row>
-    <row r="145" spans="1:9" ht="17" thickBot="1">
+    <row r="145" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="29">
         <v>3</v>
       </c>
@@ -19198,7 +19155,7 @@
       </c>
       <c r="I145"/>
     </row>
-    <row r="146" spans="1:9" ht="17" thickBot="1">
+    <row r="146" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="29">
         <v>3</v>
       </c>
@@ -19207,7 +19164,7 @@
       </c>
       <c r="I146"/>
     </row>
-    <row r="147" spans="1:9" ht="17" thickBot="1">
+    <row r="147" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="29">
         <v>3</v>
       </c>
@@ -19216,7 +19173,7 @@
       </c>
       <c r="I147"/>
     </row>
-    <row r="148" spans="1:9" ht="17" thickBot="1">
+    <row r="148" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="29">
         <v>3</v>
       </c>
@@ -19225,7 +19182,7 @@
       </c>
       <c r="I148"/>
     </row>
-    <row r="149" spans="1:9" ht="17" thickBot="1">
+    <row r="149" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="29">
         <v>3</v>
       </c>
@@ -19234,7 +19191,7 @@
       </c>
       <c r="I149"/>
     </row>
-    <row r="150" spans="1:9" ht="17" thickBot="1">
+    <row r="150" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="29">
         <v>3</v>
       </c>
@@ -19243,7 +19200,7 @@
       </c>
       <c r="I150"/>
     </row>
-    <row r="151" spans="1:9" ht="17" thickBot="1">
+    <row r="151" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="29">
         <v>3</v>
       </c>
@@ -19252,7 +19209,7 @@
       </c>
       <c r="I151"/>
     </row>
-    <row r="152" spans="1:9" ht="17" thickBot="1">
+    <row r="152" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="29">
         <v>3</v>
       </c>
@@ -19261,7 +19218,7 @@
       </c>
       <c r="I152"/>
     </row>
-    <row r="153" spans="1:9" ht="17" thickBot="1">
+    <row r="153" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="29">
         <v>3</v>
       </c>
@@ -19270,7 +19227,7 @@
       </c>
       <c r="I153"/>
     </row>
-    <row r="154" spans="1:9" ht="17" thickBot="1">
+    <row r="154" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="29">
         <v>3</v>
       </c>
@@ -19279,7 +19236,7 @@
       </c>
       <c r="I154"/>
     </row>
-    <row r="155" spans="1:9" ht="17" thickBot="1">
+    <row r="155" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="29">
         <v>3</v>
       </c>
@@ -19288,12 +19245,12 @@
       </c>
       <c r="I155"/>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156"/>
       <c r="B156"/>
       <c r="I156"/>
     </row>
-    <row r="157" spans="1:9" ht="16">
+    <row r="157" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A157" s="30">
         <v>6</v>
       </c>
@@ -19302,7 +19259,7 @@
       </c>
       <c r="I157"/>
     </row>
-    <row r="158" spans="1:9" ht="16">
+    <row r="158" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A158" s="30">
         <v>6</v>
       </c>
@@ -19311,7 +19268,7 @@
       </c>
       <c r="I158"/>
     </row>
-    <row r="159" spans="1:9" ht="16">
+    <row r="159" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A159" s="30">
         <v>6</v>
       </c>
@@ -19320,7 +19277,7 @@
       </c>
       <c r="I159"/>
     </row>
-    <row r="160" spans="1:9" ht="16">
+    <row r="160" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A160" s="30">
         <v>6</v>
       </c>
@@ -19329,7 +19286,7 @@
       </c>
       <c r="I160"/>
     </row>
-    <row r="161" spans="1:9" ht="16">
+    <row r="161" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A161" s="30">
         <v>6</v>
       </c>
@@ -19338,7 +19295,7 @@
       </c>
       <c r="I161"/>
     </row>
-    <row r="162" spans="1:9" ht="16">
+    <row r="162" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A162" s="30">
         <v>6</v>
       </c>
@@ -19347,7 +19304,7 @@
       </c>
       <c r="I162"/>
     </row>
-    <row r="163" spans="1:9" ht="16">
+    <row r="163" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A163" s="30">
         <v>6</v>
       </c>
@@ -19356,7 +19313,7 @@
       </c>
       <c r="I163"/>
     </row>
-    <row r="164" spans="1:9" ht="16">
+    <row r="164" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A164" s="30">
         <v>6</v>
       </c>
@@ -19365,7 +19322,7 @@
       </c>
       <c r="I164"/>
     </row>
-    <row r="165" spans="1:9" ht="16">
+    <row r="165" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A165" s="30">
         <v>6</v>
       </c>
@@ -19374,7 +19331,7 @@
       </c>
       <c r="I165"/>
     </row>
-    <row r="166" spans="1:9" ht="16">
+    <row r="166" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A166" s="30">
         <v>6</v>
       </c>
@@ -19383,7 +19340,7 @@
       </c>
       <c r="I166"/>
     </row>
-    <row r="167" spans="1:9" ht="16">
+    <row r="167" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A167" s="30">
         <v>6</v>
       </c>
@@ -19392,7 +19349,7 @@
       </c>
       <c r="I167"/>
     </row>
-    <row r="168" spans="1:9" ht="16">
+    <row r="168" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A168" s="30">
         <v>6</v>
       </c>
@@ -19401,7 +19358,7 @@
       </c>
       <c r="I168"/>
     </row>
-    <row r="169" spans="1:9" ht="16">
+    <row r="169" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A169" s="30">
         <v>6</v>
       </c>
@@ -19410,7 +19367,7 @@
       </c>
       <c r="I169"/>
     </row>
-    <row r="170" spans="1:9" ht="16">
+    <row r="170" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A170" s="30">
         <v>6</v>
       </c>
@@ -19419,7 +19376,7 @@
       </c>
       <c r="I170"/>
     </row>
-    <row r="171" spans="1:9" ht="16">
+    <row r="171" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A171" s="30">
         <v>6</v>
       </c>
@@ -19428,7 +19385,7 @@
       </c>
       <c r="I171"/>
     </row>
-    <row r="172" spans="1:9" ht="17" thickBot="1">
+    <row r="172" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="30">
         <v>6</v>
       </c>
@@ -19437,12 +19394,12 @@
       </c>
       <c r="I172"/>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173"/>
       <c r="B173"/>
       <c r="I173"/>
     </row>
-    <row r="174" spans="1:9" ht="16">
+    <row r="174" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A174" s="30">
         <v>2</v>
       </c>
@@ -19451,7 +19408,7 @@
       </c>
       <c r="I174"/>
     </row>
-    <row r="175" spans="1:9" ht="16">
+    <row r="175" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A175" s="30">
         <v>2</v>
       </c>
@@ -19460,7 +19417,7 @@
       </c>
       <c r="I175"/>
     </row>
-    <row r="176" spans="1:9" ht="16">
+    <row r="176" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A176" s="30">
         <v>2</v>
       </c>
@@ -19469,7 +19426,7 @@
       </c>
       <c r="I176"/>
     </row>
-    <row r="177" spans="1:9" ht="16">
+    <row r="177" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A177" s="30">
         <v>2</v>
       </c>
@@ -19478,7 +19435,7 @@
       </c>
       <c r="I177"/>
     </row>
-    <row r="178" spans="1:9" ht="16">
+    <row r="178" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A178" s="30">
         <v>2</v>
       </c>
@@ -19487,7 +19444,7 @@
       </c>
       <c r="I178"/>
     </row>
-    <row r="179" spans="1:9" ht="16">
+    <row r="179" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A179" s="30">
         <v>2</v>
       </c>
@@ -19496,7 +19453,7 @@
       </c>
       <c r="I179"/>
     </row>
-    <row r="180" spans="1:9" ht="16">
+    <row r="180" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A180" s="30">
         <v>2</v>
       </c>
@@ -19505,7 +19462,7 @@
       </c>
       <c r="I180"/>
     </row>
-    <row r="181" spans="1:9" ht="16">
+    <row r="181" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A181" s="30">
         <v>2</v>
       </c>
@@ -19514,7 +19471,7 @@
       </c>
       <c r="I181"/>
     </row>
-    <row r="182" spans="1:9" ht="16">
+    <row r="182" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A182" s="30">
         <v>2</v>
       </c>
@@ -19523,7 +19480,7 @@
       </c>
       <c r="I182"/>
     </row>
-    <row r="183" spans="1:9" ht="16">
+    <row r="183" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A183" s="30">
         <v>2</v>
       </c>
@@ -19532,7 +19489,7 @@
       </c>
       <c r="I183"/>
     </row>
-    <row r="184" spans="1:9" ht="16">
+    <row r="184" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A184" s="30">
         <v>2</v>
       </c>
@@ -19541,7 +19498,7 @@
       </c>
       <c r="I184"/>
     </row>
-    <row r="185" spans="1:9" ht="16">
+    <row r="185" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A185" s="30">
         <v>2</v>
       </c>
@@ -19550,7 +19507,7 @@
       </c>
       <c r="I185"/>
     </row>
-    <row r="186" spans="1:9" ht="16">
+    <row r="186" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A186" s="30">
         <v>2</v>
       </c>
@@ -19559,7 +19516,7 @@
       </c>
       <c r="I186"/>
     </row>
-    <row r="187" spans="1:9" ht="16">
+    <row r="187" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A187" s="30">
         <v>2</v>
       </c>
@@ -19568,7 +19525,7 @@
       </c>
       <c r="I187"/>
     </row>
-    <row r="188" spans="1:9" ht="16">
+    <row r="188" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A188" s="30">
         <v>2</v>
       </c>
@@ -19577,7 +19534,7 @@
       </c>
       <c r="I188"/>
     </row>
-    <row r="189" spans="1:9" ht="16">
+    <row r="189" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A189" s="30">
         <v>2</v>
       </c>
@@ -19586,7 +19543,7 @@
       </c>
       <c r="I189"/>
     </row>
-    <row r="190" spans="1:9" ht="16">
+    <row r="190" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A190" s="30">
         <v>2</v>
       </c>
@@ -19595,7 +19552,7 @@
       </c>
       <c r="I190"/>
     </row>
-    <row r="191" spans="1:9" ht="16">
+    <row r="191" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A191" s="30">
         <v>2</v>
       </c>
@@ -19604,7 +19561,7 @@
       </c>
       <c r="I191"/>
     </row>
-    <row r="192" spans="1:9" ht="16">
+    <row r="192" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A192" s="30">
         <v>2</v>
       </c>
@@ -19613,7 +19570,7 @@
       </c>
       <c r="I192"/>
     </row>
-    <row r="193" spans="1:9" ht="16">
+    <row r="193" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A193" s="30">
         <v>2</v>
       </c>
@@ -19622,7 +19579,7 @@
       </c>
       <c r="I193"/>
     </row>
-    <row r="194" spans="1:9" ht="16">
+    <row r="194" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A194" s="30">
         <v>2</v>
       </c>
@@ -19631,7 +19588,7 @@
       </c>
       <c r="I194"/>
     </row>
-    <row r="195" spans="1:9" ht="16">
+    <row r="195" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A195" s="30">
         <v>2</v>
       </c>
@@ -19640,7 +19597,7 @@
       </c>
       <c r="I195"/>
     </row>
-    <row r="196" spans="1:9" ht="16">
+    <row r="196" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A196" s="30">
         <v>2</v>
       </c>
@@ -19649,7 +19606,7 @@
       </c>
       <c r="I196"/>
     </row>
-    <row r="197" spans="1:9" ht="16">
+    <row r="197" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A197" s="30">
         <v>2</v>
       </c>
@@ -19658,7 +19615,7 @@
       </c>
       <c r="I197"/>
     </row>
-    <row r="198" spans="1:9" ht="16">
+    <row r="198" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A198" s="30">
         <v>2</v>
       </c>
@@ -19667,7 +19624,7 @@
       </c>
       <c r="I198"/>
     </row>
-    <row r="199" spans="1:9" ht="16">
+    <row r="199" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A199" s="30">
         <v>2</v>
       </c>
@@ -19676,7 +19633,7 @@
       </c>
       <c r="I199"/>
     </row>
-    <row r="200" spans="1:9" ht="16">
+    <row r="200" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A200" s="30">
         <v>2</v>
       </c>
@@ -19685,7 +19642,7 @@
       </c>
       <c r="I200"/>
     </row>
-    <row r="201" spans="1:9" ht="16">
+    <row r="201" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A201" s="30">
         <v>2</v>
       </c>
@@ -19694,7 +19651,7 @@
       </c>
       <c r="I201"/>
     </row>
-    <row r="202" spans="1:9" ht="16">
+    <row r="202" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A202" s="30">
         <v>2</v>
       </c>
@@ -19703,7 +19660,7 @@
       </c>
       <c r="I202"/>
     </row>
-    <row r="203" spans="1:9" ht="16">
+    <row r="203" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A203" s="30">
         <v>2</v>
       </c>
@@ -19712,7 +19669,7 @@
       </c>
       <c r="I203"/>
     </row>
-    <row r="204" spans="1:9" ht="16">
+    <row r="204" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A204" s="30">
         <v>2</v>
       </c>
@@ -19721,7 +19678,7 @@
       </c>
       <c r="I204"/>
     </row>
-    <row r="205" spans="1:9" ht="16">
+    <row r="205" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A205" s="30">
         <v>2</v>
       </c>
@@ -19730,7 +19687,7 @@
       </c>
       <c r="I205"/>
     </row>
-    <row r="206" spans="1:9" ht="16">
+    <row r="206" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A206" s="30">
         <v>2</v>
       </c>
@@ -19739,7 +19696,7 @@
       </c>
       <c r="I206"/>
     </row>
-    <row r="207" spans="1:9" ht="16">
+    <row r="207" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A207" s="30">
         <v>2</v>
       </c>
@@ -19748,7 +19705,7 @@
       </c>
       <c r="I207"/>
     </row>
-    <row r="208" spans="1:9" ht="16">
+    <row r="208" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A208" s="30">
         <v>2</v>
       </c>
@@ -19757,7 +19714,7 @@
       </c>
       <c r="I208"/>
     </row>
-    <row r="209" spans="1:9" ht="16">
+    <row r="209" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A209" s="30">
         <v>2</v>
       </c>
@@ -19766,7 +19723,7 @@
       </c>
       <c r="I209"/>
     </row>
-    <row r="210" spans="1:9" ht="16">
+    <row r="210" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A210" s="30">
         <v>2</v>
       </c>
@@ -19775,7 +19732,7 @@
       </c>
       <c r="I210"/>
     </row>
-    <row r="211" spans="1:9" ht="16">
+    <row r="211" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A211" s="30">
         <v>2</v>
       </c>
@@ -19784,7 +19741,7 @@
       </c>
       <c r="I211"/>
     </row>
-    <row r="212" spans="1:9" ht="16">
+    <row r="212" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A212" s="30">
         <v>2</v>
       </c>
@@ -19793,7 +19750,7 @@
       </c>
       <c r="I212"/>
     </row>
-    <row r="213" spans="1:9" ht="16">
+    <row r="213" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A213" s="30">
         <v>2</v>
       </c>
@@ -19802,7 +19759,7 @@
       </c>
       <c r="I213"/>
     </row>
-    <row r="214" spans="1:9" ht="16">
+    <row r="214" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A214" s="30">
         <v>2</v>
       </c>
@@ -19811,7 +19768,7 @@
       </c>
       <c r="I214"/>
     </row>
-    <row r="215" spans="1:9" ht="16">
+    <row r="215" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A215" s="30">
         <v>2</v>
       </c>
@@ -19820,7 +19777,7 @@
       </c>
       <c r="I215"/>
     </row>
-    <row r="216" spans="1:9" ht="16">
+    <row r="216" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A216" s="30">
         <v>2</v>
       </c>
@@ -19829,7 +19786,7 @@
       </c>
       <c r="I216"/>
     </row>
-    <row r="217" spans="1:9" ht="16">
+    <row r="217" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A217" s="30">
         <v>2</v>
       </c>
@@ -19838,7 +19795,7 @@
       </c>
       <c r="I217"/>
     </row>
-    <row r="218" spans="1:9" ht="16">
+    <row r="218" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A218" s="30">
         <v>2</v>
       </c>
@@ -19847,7 +19804,7 @@
       </c>
       <c r="I218"/>
     </row>
-    <row r="219" spans="1:9" ht="16">
+    <row r="219" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A219" s="30">
         <v>2</v>
       </c>
@@ -19856,7 +19813,7 @@
       </c>
       <c r="I219"/>
     </row>
-    <row r="220" spans="1:9" ht="16">
+    <row r="220" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A220" s="30">
         <v>2</v>
       </c>
@@ -19865,7 +19822,7 @@
       </c>
       <c r="I220"/>
     </row>
-    <row r="221" spans="1:9" ht="16">
+    <row r="221" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A221" s="30">
         <v>2</v>
       </c>
@@ -19874,7 +19831,7 @@
       </c>
       <c r="I221"/>
     </row>
-    <row r="222" spans="1:9" ht="16">
+    <row r="222" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A222" s="30">
         <v>2</v>
       </c>
@@ -19883,7 +19840,7 @@
       </c>
       <c r="I222"/>
     </row>
-    <row r="223" spans="1:9" ht="16">
+    <row r="223" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A223" s="30">
         <v>2</v>
       </c>
@@ -19892,7 +19849,7 @@
       </c>
       <c r="I223"/>
     </row>
-    <row r="224" spans="1:9" ht="16">
+    <row r="224" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A224" s="30">
         <v>2</v>
       </c>
@@ -19901,7 +19858,7 @@
       </c>
       <c r="I224"/>
     </row>
-    <row r="225" spans="1:9" ht="16">
+    <row r="225" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A225" s="30">
         <v>2</v>
       </c>
@@ -19910,7 +19867,7 @@
       </c>
       <c r="I225"/>
     </row>
-    <row r="226" spans="1:9" ht="16">
+    <row r="226" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A226" s="30">
         <v>2</v>
       </c>
@@ -19919,7 +19876,7 @@
       </c>
       <c r="I226"/>
     </row>
-    <row r="227" spans="1:9" ht="16">
+    <row r="227" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A227" s="30">
         <v>2</v>
       </c>
@@ -19928,7 +19885,7 @@
       </c>
       <c r="I227"/>
     </row>
-    <row r="228" spans="1:9" ht="16">
+    <row r="228" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A228" s="30">
         <v>2</v>
       </c>
@@ -19937,7 +19894,7 @@
       </c>
       <c r="I228"/>
     </row>
-    <row r="229" spans="1:9" ht="16">
+    <row r="229" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A229" s="30">
         <v>2</v>
       </c>
@@ -19946,7 +19903,7 @@
       </c>
       <c r="I229"/>
     </row>
-    <row r="230" spans="1:9" ht="16">
+    <row r="230" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A230" s="30">
         <v>2</v>
       </c>
@@ -19955,7 +19912,7 @@
       </c>
       <c r="I230"/>
     </row>
-    <row r="231" spans="1:9" ht="16">
+    <row r="231" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A231" s="30">
         <v>2</v>
       </c>
@@ -19964,7 +19921,7 @@
       </c>
       <c r="I231"/>
     </row>
-    <row r="232" spans="1:9" ht="16">
+    <row r="232" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A232" s="30">
         <v>2</v>
       </c>
@@ -19973,7 +19930,7 @@
       </c>
       <c r="I232"/>
     </row>
-    <row r="233" spans="1:9" ht="16">
+    <row r="233" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A233" s="30">
         <v>2</v>
       </c>
@@ -19982,7 +19939,7 @@
       </c>
       <c r="I233"/>
     </row>
-    <row r="234" spans="1:9" ht="16">
+    <row r="234" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A234" s="30">
         <v>2</v>
       </c>
@@ -19991,7 +19948,7 @@
       </c>
       <c r="I234"/>
     </row>
-    <row r="235" spans="1:9" ht="16">
+    <row r="235" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A235" s="30">
         <v>2</v>
       </c>
@@ -20000,7 +19957,7 @@
       </c>
       <c r="I235"/>
     </row>
-    <row r="236" spans="1:9" ht="16">
+    <row r="236" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A236" s="30">
         <v>2</v>
       </c>
@@ -20009,7 +19966,7 @@
       </c>
       <c r="I236"/>
     </row>
-    <row r="237" spans="1:9" ht="16">
+    <row r="237" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A237" s="30">
         <v>2</v>
       </c>
@@ -20018,7 +19975,7 @@
       </c>
       <c r="I237"/>
     </row>
-    <row r="238" spans="1:9" ht="16">
+    <row r="238" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A238" s="30">
         <v>2</v>
       </c>
@@ -20027,7 +19984,7 @@
       </c>
       <c r="I238"/>
     </row>
-    <row r="239" spans="1:9" ht="16">
+    <row r="239" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A239" s="30">
         <v>2</v>
       </c>
@@ -20036,7 +19993,7 @@
       </c>
       <c r="I239"/>
     </row>
-    <row r="240" spans="1:9" ht="16">
+    <row r="240" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A240" s="30">
         <v>2</v>
       </c>
@@ -20045,7 +20002,7 @@
       </c>
       <c r="I240"/>
     </row>
-    <row r="241" spans="1:9" ht="16">
+    <row r="241" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A241" s="30">
         <v>2</v>
       </c>
@@ -20054,7 +20011,7 @@
       </c>
       <c r="I241"/>
     </row>
-    <row r="242" spans="1:9" ht="16">
+    <row r="242" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A242" s="30">
         <v>2</v>
       </c>
@@ -20063,7 +20020,7 @@
       </c>
       <c r="I242"/>
     </row>
-    <row r="243" spans="1:9" ht="16">
+    <row r="243" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A243" s="30">
         <v>2</v>
       </c>
@@ -20072,7 +20029,7 @@
       </c>
       <c r="I243"/>
     </row>
-    <row r="244" spans="1:9" ht="16">
+    <row r="244" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A244" s="30">
         <v>2</v>
       </c>
@@ -20081,7 +20038,7 @@
       </c>
       <c r="I244"/>
     </row>
-    <row r="245" spans="1:9" ht="16">
+    <row r="245" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A245" s="30">
         <v>2</v>
       </c>
@@ -20090,7 +20047,7 @@
       </c>
       <c r="I245"/>
     </row>
-    <row r="246" spans="1:9" ht="16">
+    <row r="246" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A246" s="30">
         <v>2</v>
       </c>
@@ -20099,7 +20056,7 @@
       </c>
       <c r="I246"/>
     </row>
-    <row r="247" spans="1:9" ht="17" thickBot="1">
+    <row r="247" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A247" s="30">
         <v>2</v>
       </c>
@@ -20108,12 +20065,12 @@
       </c>
       <c r="I247"/>
     </row>
-    <row r="248" spans="1:9">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248"/>
       <c r="B248"/>
       <c r="I248"/>
     </row>
-    <row r="249" spans="1:9" ht="16">
+    <row r="249" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A249" s="30">
         <v>6</v>
       </c>
@@ -20122,7 +20079,7 @@
       </c>
       <c r="I249"/>
     </row>
-    <row r="250" spans="1:9" ht="16">
+    <row r="250" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A250" s="30">
         <v>6</v>
       </c>
@@ -20131,7 +20088,7 @@
       </c>
       <c r="I250"/>
     </row>
-    <row r="251" spans="1:9" ht="16">
+    <row r="251" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A251" s="30">
         <v>6</v>
       </c>
@@ -20140,7 +20097,7 @@
       </c>
       <c r="I251"/>
     </row>
-    <row r="252" spans="1:9" ht="16">
+    <row r="252" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A252" s="30">
         <v>6</v>
       </c>
@@ -20149,7 +20106,7 @@
       </c>
       <c r="I252"/>
     </row>
-    <row r="253" spans="1:9" ht="16">
+    <row r="253" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A253" s="30">
         <v>6</v>
       </c>
@@ -20158,7 +20115,7 @@
       </c>
       <c r="I253"/>
     </row>
-    <row r="254" spans="1:9" ht="16">
+    <row r="254" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A254" s="30">
         <v>6</v>
       </c>
@@ -20167,7 +20124,7 @@
       </c>
       <c r="I254"/>
     </row>
-    <row r="255" spans="1:9" ht="16">
+    <row r="255" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A255" s="30">
         <v>6</v>
       </c>
@@ -20176,7 +20133,7 @@
       </c>
       <c r="I255"/>
     </row>
-    <row r="256" spans="1:9" ht="16">
+    <row r="256" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A256" s="30">
         <v>6</v>
       </c>
@@ -20185,7 +20142,7 @@
       </c>
       <c r="I256"/>
     </row>
-    <row r="257" spans="1:9" ht="16">
+    <row r="257" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A257" s="30">
         <v>6</v>
       </c>
@@ -20194,7 +20151,7 @@
       </c>
       <c r="I257"/>
     </row>
-    <row r="258" spans="1:9" ht="16">
+    <row r="258" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A258" s="30">
         <v>6</v>
       </c>
@@ -20203,7 +20160,7 @@
       </c>
       <c r="I258"/>
     </row>
-    <row r="259" spans="1:9" ht="16">
+    <row r="259" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A259" s="30">
         <v>6</v>
       </c>
@@ -20212,7 +20169,7 @@
       </c>
       <c r="I259"/>
     </row>
-    <row r="260" spans="1:9" ht="16">
+    <row r="260" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A260" s="30">
         <v>6</v>
       </c>
@@ -20221,7 +20178,7 @@
       </c>
       <c r="I260"/>
     </row>
-    <row r="261" spans="1:9" ht="16">
+    <row r="261" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A261" s="30">
         <v>6</v>
       </c>
@@ -20230,7 +20187,7 @@
       </c>
       <c r="I261"/>
     </row>
-    <row r="262" spans="1:9" ht="16">
+    <row r="262" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A262" s="30">
         <v>6</v>
       </c>
@@ -20239,7 +20196,7 @@
       </c>
       <c r="I262"/>
     </row>
-    <row r="263" spans="1:9" ht="16">
+    <row r="263" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A263" s="30">
         <v>6</v>
       </c>
@@ -20248,7 +20205,7 @@
       </c>
       <c r="I263"/>
     </row>
-    <row r="264" spans="1:9" ht="16">
+    <row r="264" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A264" s="30">
         <v>6</v>
       </c>
@@ -20257,7 +20214,7 @@
       </c>
       <c r="I264"/>
     </row>
-    <row r="265" spans="1:9" ht="16">
+    <row r="265" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A265" s="30">
         <v>6</v>
       </c>
@@ -20266,7 +20223,7 @@
       </c>
       <c r="I265"/>
     </row>
-    <row r="266" spans="1:9" ht="16">
+    <row r="266" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A266" s="30">
         <v>6</v>
       </c>
@@ -20275,7 +20232,7 @@
       </c>
       <c r="I266"/>
     </row>
-    <row r="267" spans="1:9" ht="16">
+    <row r="267" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A267" s="30">
         <v>6</v>
       </c>
@@ -20284,7 +20241,7 @@
       </c>
       <c r="I267"/>
     </row>
-    <row r="268" spans="1:9" ht="16">
+    <row r="268" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A268" s="30">
         <v>6</v>
       </c>
@@ -20293,7 +20250,7 @@
       </c>
       <c r="I268"/>
     </row>
-    <row r="269" spans="1:9" ht="16">
+    <row r="269" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A269" s="30">
         <v>6</v>
       </c>
@@ -20302,7 +20259,7 @@
       </c>
       <c r="I269"/>
     </row>
-    <row r="270" spans="1:9" ht="16">
+    <row r="270" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A270" s="30">
         <v>6</v>
       </c>
@@ -20311,7 +20268,7 @@
       </c>
       <c r="I270"/>
     </row>
-    <row r="271" spans="1:9" ht="16">
+    <row r="271" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A271" s="30">
         <v>6</v>
       </c>
@@ -20320,7 +20277,7 @@
       </c>
       <c r="I271"/>
     </row>
-    <row r="272" spans="1:9" ht="16">
+    <row r="272" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A272" s="30">
         <v>6</v>
       </c>
@@ -20329,7 +20286,7 @@
       </c>
       <c r="I272"/>
     </row>
-    <row r="273" spans="1:9" ht="16">
+    <row r="273" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A273" s="30">
         <v>6</v>
       </c>
@@ -20338,7 +20295,7 @@
       </c>
       <c r="I273"/>
     </row>
-    <row r="274" spans="1:9" ht="16">
+    <row r="274" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A274" s="30">
         <v>6</v>
       </c>
@@ -20347,7 +20304,7 @@
       </c>
       <c r="I274"/>
     </row>
-    <row r="275" spans="1:9" ht="16">
+    <row r="275" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A275" s="30">
         <v>6</v>
       </c>
@@ -20356,7 +20313,7 @@
       </c>
       <c r="I275"/>
     </row>
-    <row r="276" spans="1:9" ht="16">
+    <row r="276" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A276" s="30">
         <v>6</v>
       </c>
@@ -20365,7 +20322,7 @@
       </c>
       <c r="I276"/>
     </row>
-    <row r="277" spans="1:9" ht="16">
+    <row r="277" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A277" s="30">
         <v>6</v>
       </c>
@@ -20374,7 +20331,7 @@
       </c>
       <c r="I277"/>
     </row>
-    <row r="278" spans="1:9" ht="16">
+    <row r="278" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A278" s="30">
         <v>6</v>
       </c>
@@ -20383,12 +20340,12 @@
       </c>
       <c r="I278"/>
     </row>
-    <row r="279" spans="1:9">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279"/>
       <c r="B279"/>
       <c r="I279"/>
     </row>
-    <row r="280" spans="1:9" ht="16">
+    <row r="280" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A280" s="31">
         <v>1</v>
       </c>
@@ -20397,7 +20354,7 @@
       </c>
       <c r="I280"/>
     </row>
-    <row r="281" spans="1:9" ht="16">
+    <row r="281" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A281" s="31">
         <v>1</v>
       </c>
@@ -20406,7 +20363,7 @@
       </c>
       <c r="I281"/>
     </row>
-    <row r="282" spans="1:9" ht="16">
+    <row r="282" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A282" s="31">
         <v>1</v>
       </c>
@@ -20415,7 +20372,7 @@
       </c>
       <c r="I282"/>
     </row>
-    <row r="283" spans="1:9" ht="16">
+    <row r="283" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A283" s="31">
         <v>1</v>
       </c>
@@ -20424,7 +20381,7 @@
       </c>
       <c r="I283"/>
     </row>
-    <row r="284" spans="1:9" ht="16">
+    <row r="284" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A284" s="31">
         <v>1</v>
       </c>
@@ -20433,7 +20390,7 @@
       </c>
       <c r="I284"/>
     </row>
-    <row r="285" spans="1:9" ht="16">
+    <row r="285" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A285" s="31">
         <v>2</v>
       </c>
@@ -20442,7 +20399,7 @@
       </c>
       <c r="I285"/>
     </row>
-    <row r="286" spans="1:9" ht="16">
+    <row r="286" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A286" s="31">
         <v>1</v>
       </c>
@@ -20451,7 +20408,7 @@
       </c>
       <c r="I286"/>
     </row>
-    <row r="287" spans="1:9" ht="16">
+    <row r="287" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A287" s="31">
         <v>1</v>
       </c>
@@ -20460,7 +20417,7 @@
       </c>
       <c r="I287"/>
     </row>
-    <row r="288" spans="1:9" ht="16">
+    <row r="288" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A288" s="31">
         <v>1</v>
       </c>
@@ -20469,7 +20426,7 @@
       </c>
       <c r="I288"/>
     </row>
-    <row r="289" spans="1:9" ht="16">
+    <row r="289" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A289" s="31">
         <v>1</v>
       </c>
@@ -20478,7 +20435,7 @@
       </c>
       <c r="I289"/>
     </row>
-    <row r="290" spans="1:9" ht="16">
+    <row r="290" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A290" s="31">
         <v>1</v>
       </c>
@@ -20487,7 +20444,7 @@
       </c>
       <c r="I290"/>
     </row>
-    <row r="291" spans="1:9" ht="16">
+    <row r="291" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A291" s="31">
         <v>1</v>
       </c>
@@ -20496,7 +20453,7 @@
       </c>
       <c r="I291"/>
     </row>
-    <row r="292" spans="1:9" ht="16">
+    <row r="292" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A292" s="31">
         <v>1</v>
       </c>
@@ -20505,7 +20462,7 @@
       </c>
       <c r="I292"/>
     </row>
-    <row r="293" spans="1:9" ht="16">
+    <row r="293" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A293" s="31">
         <v>1</v>
       </c>
@@ -20514,7 +20471,7 @@
       </c>
       <c r="I293"/>
     </row>
-    <row r="294" spans="1:9" ht="16">
+    <row r="294" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A294" s="31">
         <v>1</v>
       </c>
@@ -20523,7 +20480,7 @@
       </c>
       <c r="I294"/>
     </row>
-    <row r="295" spans="1:9" ht="16">
+    <row r="295" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A295" s="31">
         <v>1</v>
       </c>
@@ -20532,7 +20489,7 @@
       </c>
       <c r="I295"/>
     </row>
-    <row r="296" spans="1:9" ht="16">
+    <row r="296" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A296" s="31">
         <v>1</v>
       </c>
@@ -20541,7 +20498,7 @@
       </c>
       <c r="I296"/>
     </row>
-    <row r="297" spans="1:9" ht="16">
+    <row r="297" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A297" s="31">
         <v>1</v>
       </c>
@@ -20550,7 +20507,7 @@
       </c>
       <c r="I297"/>
     </row>
-    <row r="298" spans="1:9" ht="16">
+    <row r="298" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A298" s="31">
         <v>1</v>
       </c>
@@ -20559,7 +20516,7 @@
       </c>
       <c r="I298"/>
     </row>
-    <row r="299" spans="1:9" ht="16">
+    <row r="299" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A299" s="31">
         <v>1</v>
       </c>
@@ -20568,7 +20525,7 @@
       </c>
       <c r="I299"/>
     </row>
-    <row r="300" spans="1:9" ht="16">
+    <row r="300" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A300" s="31">
         <v>1</v>
       </c>
@@ -20577,7 +20534,7 @@
       </c>
       <c r="I300"/>
     </row>
-    <row r="301" spans="1:9" ht="16">
+    <row r="301" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A301" s="31">
         <v>1</v>
       </c>
@@ -20586,7 +20543,7 @@
       </c>
       <c r="I301"/>
     </row>
-    <row r="302" spans="1:9" ht="16">
+    <row r="302" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A302" s="31">
         <v>1</v>
       </c>
@@ -20595,7 +20552,7 @@
       </c>
       <c r="I302"/>
     </row>
-    <row r="303" spans="1:9" ht="16">
+    <row r="303" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A303" s="31">
         <v>1</v>
       </c>
@@ -20604,7 +20561,7 @@
       </c>
       <c r="I303"/>
     </row>
-    <row r="304" spans="1:9" ht="16">
+    <row r="304" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A304" s="31">
         <v>1</v>
       </c>
@@ -20613,7 +20570,7 @@
       </c>
       <c r="I304"/>
     </row>
-    <row r="305" spans="1:9" ht="16">
+    <row r="305" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A305" s="31">
         <v>1</v>
       </c>
@@ -20622,7 +20579,7 @@
       </c>
       <c r="I305"/>
     </row>
-    <row r="306" spans="1:9" ht="16">
+    <row r="306" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A306" s="31">
         <v>1</v>
       </c>
@@ -20631,7 +20588,7 @@
       </c>
       <c r="I306"/>
     </row>
-    <row r="307" spans="1:9" ht="16">
+    <row r="307" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A307" s="31">
         <v>1</v>
       </c>
@@ -20640,7 +20597,7 @@
       </c>
       <c r="I307"/>
     </row>
-    <row r="308" spans="1:9" ht="16">
+    <row r="308" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A308" s="31">
         <v>1</v>
       </c>
@@ -20649,7 +20606,7 @@
       </c>
       <c r="I308"/>
     </row>
-    <row r="309" spans="1:9" ht="16">
+    <row r="309" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A309" s="31">
         <v>1</v>
       </c>
@@ -20658,7 +20615,7 @@
       </c>
       <c r="I309"/>
     </row>
-    <row r="310" spans="1:9" ht="16">
+    <row r="310" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A310" s="31">
         <v>1</v>
       </c>
@@ -20667,7 +20624,7 @@
       </c>
       <c r="I310"/>
     </row>
-    <row r="311" spans="1:9" ht="16">
+    <row r="311" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A311" s="31">
         <v>1</v>
       </c>
@@ -20676,7 +20633,7 @@
       </c>
       <c r="I311"/>
     </row>
-    <row r="312" spans="1:9" ht="16">
+    <row r="312" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A312" s="31">
         <v>1</v>
       </c>
@@ -20685,7 +20642,7 @@
       </c>
       <c r="I312"/>
     </row>
-    <row r="313" spans="1:9" ht="16">
+    <row r="313" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A313" s="31">
         <v>1</v>
       </c>
@@ -20694,7 +20651,7 @@
       </c>
       <c r="I313"/>
     </row>
-    <row r="314" spans="1:9" ht="16">
+    <row r="314" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A314" s="31">
         <v>1</v>
       </c>
@@ -20703,7 +20660,7 @@
       </c>
       <c r="I314"/>
     </row>
-    <row r="315" spans="1:9" ht="16">
+    <row r="315" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A315" s="31">
         <v>1</v>
       </c>
@@ -20712,7 +20669,7 @@
       </c>
       <c r="I315"/>
     </row>
-    <row r="316" spans="1:9" ht="16">
+    <row r="316" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A316" s="31">
         <v>1</v>
       </c>
@@ -20721,7 +20678,7 @@
       </c>
       <c r="I316"/>
     </row>
-    <row r="317" spans="1:9" ht="16">
+    <row r="317" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A317" s="31">
         <v>1</v>
       </c>
@@ -20730,7 +20687,7 @@
       </c>
       <c r="I317"/>
     </row>
-    <row r="318" spans="1:9" ht="16">
+    <row r="318" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A318" s="31">
         <v>1</v>
       </c>
@@ -20739,7 +20696,7 @@
       </c>
       <c r="I318"/>
     </row>
-    <row r="319" spans="1:9" ht="16">
+    <row r="319" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A319" s="31">
         <v>1</v>
       </c>
@@ -20748,7 +20705,7 @@
       </c>
       <c r="I319"/>
     </row>
-    <row r="320" spans="1:9" ht="16">
+    <row r="320" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A320" s="31">
         <v>1</v>
       </c>
@@ -20757,7 +20714,7 @@
       </c>
       <c r="I320"/>
     </row>
-    <row r="321" spans="1:9" ht="16">
+    <row r="321" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A321" s="31">
         <v>1</v>
       </c>
@@ -20766,7 +20723,7 @@
       </c>
       <c r="I321"/>
     </row>
-    <row r="322" spans="1:9" ht="16">
+    <row r="322" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A322" s="31">
         <v>1</v>
       </c>
@@ -20775,7 +20732,7 @@
       </c>
       <c r="I322"/>
     </row>
-    <row r="323" spans="1:9" ht="16">
+    <row r="323" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A323" s="31">
         <v>2</v>
       </c>
@@ -20784,7 +20741,7 @@
       </c>
       <c r="I323"/>
     </row>
-    <row r="324" spans="1:9" ht="16">
+    <row r="324" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A324" s="31">
         <v>1</v>
       </c>
@@ -20793,7 +20750,7 @@
       </c>
       <c r="I324"/>
     </row>
-    <row r="325" spans="1:9" ht="16">
+    <row r="325" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A325" s="31">
         <v>2</v>
       </c>
@@ -20802,7 +20759,7 @@
       </c>
       <c r="I325"/>
     </row>
-    <row r="326" spans="1:9" ht="16">
+    <row r="326" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A326" s="31">
         <v>2</v>
       </c>
@@ -20811,7 +20768,7 @@
       </c>
       <c r="I326"/>
     </row>
-    <row r="327" spans="1:9" ht="16">
+    <row r="327" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A327" s="31">
         <v>2</v>
       </c>
@@ -20820,7 +20777,7 @@
       </c>
       <c r="I327"/>
     </row>
-    <row r="328" spans="1:9" ht="16">
+    <row r="328" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A328" s="31">
         <v>1</v>
       </c>
@@ -20829,7 +20786,7 @@
       </c>
       <c r="I328"/>
     </row>
-    <row r="329" spans="1:9" ht="16">
+    <row r="329" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A329" s="31">
         <v>1</v>
       </c>
@@ -20838,7 +20795,7 @@
       </c>
       <c r="I329"/>
     </row>
-    <row r="330" spans="1:9" ht="16">
+    <row r="330" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A330" s="31">
         <v>1</v>
       </c>
@@ -20847,7 +20804,7 @@
       </c>
       <c r="I330"/>
     </row>
-    <row r="331" spans="1:9" ht="16">
+    <row r="331" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A331" s="31">
         <v>1</v>
       </c>
@@ -20856,7 +20813,7 @@
       </c>
       <c r="I331"/>
     </row>
-    <row r="332" spans="1:9" ht="16">
+    <row r="332" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A332" s="31">
         <v>1</v>
       </c>
@@ -20865,7 +20822,7 @@
       </c>
       <c r="I332"/>
     </row>
-    <row r="333" spans="1:9" ht="16">
+    <row r="333" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A333" s="31">
         <v>1</v>
       </c>
@@ -20874,7 +20831,7 @@
       </c>
       <c r="I333"/>
     </row>
-    <row r="334" spans="1:9" ht="16">
+    <row r="334" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A334" s="31">
         <v>1</v>
       </c>
@@ -20883,7 +20840,7 @@
       </c>
       <c r="I334"/>
     </row>
-    <row r="335" spans="1:9" ht="16">
+    <row r="335" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A335" s="31">
         <v>1</v>
       </c>
@@ -20892,7 +20849,7 @@
       </c>
       <c r="I335"/>
     </row>
-    <row r="336" spans="1:9" ht="16">
+    <row r="336" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A336" s="31">
         <v>1</v>
       </c>
@@ -20901,7 +20858,7 @@
       </c>
       <c r="I336"/>
     </row>
-    <row r="337" spans="1:9" ht="16">
+    <row r="337" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A337" s="31">
         <v>1</v>
       </c>
@@ -20910,7 +20867,7 @@
       </c>
       <c r="I337"/>
     </row>
-    <row r="338" spans="1:9" ht="16">
+    <row r="338" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A338" s="31">
         <v>1</v>
       </c>
@@ -20919,7 +20876,7 @@
       </c>
       <c r="I338"/>
     </row>
-    <row r="339" spans="1:9" ht="16">
+    <row r="339" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A339" s="31">
         <v>1</v>
       </c>
@@ -20928,7 +20885,7 @@
       </c>
       <c r="I339"/>
     </row>
-    <row r="340" spans="1:9" ht="16">
+    <row r="340" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A340" s="31">
         <v>1</v>
       </c>
@@ -20937,7 +20894,7 @@
       </c>
       <c r="I340"/>
     </row>
-    <row r="341" spans="1:9" ht="16">
+    <row r="341" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A341" s="31">
         <v>1</v>
       </c>
@@ -20946,7 +20903,7 @@
       </c>
       <c r="I341"/>
     </row>
-    <row r="342" spans="1:9" ht="16">
+    <row r="342" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A342" s="31">
         <v>1</v>
       </c>
@@ -20955,7 +20912,7 @@
       </c>
       <c r="I342"/>
     </row>
-    <row r="343" spans="1:9" ht="16">
+    <row r="343" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A343" s="31">
         <v>1</v>
       </c>
@@ -20964,7 +20921,7 @@
       </c>
       <c r="I343"/>
     </row>
-    <row r="344" spans="1:9" ht="16">
+    <row r="344" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A344" s="31">
         <v>1</v>
       </c>
@@ -20973,7 +20930,7 @@
       </c>
       <c r="I344"/>
     </row>
-    <row r="345" spans="1:9" ht="16">
+    <row r="345" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A345" s="31">
         <v>1</v>
       </c>
@@ -20982,7 +20939,7 @@
       </c>
       <c r="I345"/>
     </row>
-    <row r="346" spans="1:9" ht="16">
+    <row r="346" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A346" s="31">
         <v>1</v>
       </c>
@@ -20991,7 +20948,7 @@
       </c>
       <c r="I346"/>
     </row>
-    <row r="347" spans="1:9" ht="16">
+    <row r="347" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A347" s="31">
         <v>1</v>
       </c>
@@ -21000,7 +20957,7 @@
       </c>
       <c r="I347"/>
     </row>
-    <row r="348" spans="1:9" ht="16">
+    <row r="348" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A348" s="31">
         <v>1</v>
       </c>
@@ -21009,7 +20966,7 @@
       </c>
       <c r="I348"/>
     </row>
-    <row r="349" spans="1:9" ht="16">
+    <row r="349" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A349" s="31">
         <v>1</v>
       </c>
@@ -21018,7 +20975,7 @@
       </c>
       <c r="I349"/>
     </row>
-    <row r="350" spans="1:9" ht="16">
+    <row r="350" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A350" s="31">
         <v>1</v>
       </c>
@@ -21027,7 +20984,7 @@
       </c>
       <c r="I350"/>
     </row>
-    <row r="351" spans="1:9" ht="16">
+    <row r="351" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A351" s="31">
         <v>1</v>
       </c>
@@ -21036,7 +20993,7 @@
       </c>
       <c r="I351"/>
     </row>
-    <row r="352" spans="1:9" ht="16">
+    <row r="352" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A352" s="31">
         <v>1</v>
       </c>
@@ -21045,7 +21002,7 @@
       </c>
       <c r="I352"/>
     </row>
-    <row r="353" spans="1:9" ht="16">
+    <row r="353" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A353" s="31">
         <v>1</v>
       </c>
@@ -21054,7 +21011,7 @@
       </c>
       <c r="I353"/>
     </row>
-    <row r="354" spans="1:9" ht="16">
+    <row r="354" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A354" s="31">
         <v>1</v>
       </c>
@@ -21063,7 +21020,7 @@
       </c>
       <c r="I354"/>
     </row>
-    <row r="355" spans="1:9" ht="16">
+    <row r="355" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A355" s="31">
         <v>1</v>
       </c>
@@ -21072,7 +21029,7 @@
       </c>
       <c r="I355"/>
     </row>
-    <row r="356" spans="1:9" ht="16">
+    <row r="356" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A356" s="31">
         <v>1</v>
       </c>
@@ -21081,7 +21038,7 @@
       </c>
       <c r="I356"/>
     </row>
-    <row r="357" spans="1:9" ht="16">
+    <row r="357" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A357" s="31">
         <v>1</v>
       </c>
@@ -21090,7 +21047,7 @@
       </c>
       <c r="I357"/>
     </row>
-    <row r="358" spans="1:9" ht="16">
+    <row r="358" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A358" s="31">
         <v>1</v>
       </c>
@@ -21099,7 +21056,7 @@
       </c>
       <c r="I358"/>
     </row>
-    <row r="359" spans="1:9" ht="16">
+    <row r="359" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A359" s="31">
         <v>1</v>
       </c>
@@ -21108,7 +21065,7 @@
       </c>
       <c r="I359"/>
     </row>
-    <row r="360" spans="1:9" ht="16">
+    <row r="360" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A360" s="31">
         <v>1</v>
       </c>
@@ -21117,7 +21074,7 @@
       </c>
       <c r="I360"/>
     </row>
-    <row r="361" spans="1:9" ht="16">
+    <row r="361" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A361" s="31">
         <v>1</v>
       </c>
@@ -21126,7 +21083,7 @@
       </c>
       <c r="I361"/>
     </row>
-    <row r="362" spans="1:9" ht="16">
+    <row r="362" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A362" s="31">
         <v>1</v>
       </c>
@@ -21135,7 +21092,7 @@
       </c>
       <c r="I362"/>
     </row>
-    <row r="363" spans="1:9" ht="16">
+    <row r="363" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A363" s="31">
         <v>1</v>
       </c>
@@ -21144,7 +21101,7 @@
       </c>
       <c r="I363"/>
     </row>
-    <row r="364" spans="1:9" ht="16">
+    <row r="364" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A364" s="31">
         <v>1</v>
       </c>
@@ -21153,7 +21110,7 @@
       </c>
       <c r="I364"/>
     </row>
-    <row r="365" spans="1:9" ht="16">
+    <row r="365" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A365" s="31">
         <v>1</v>
       </c>
@@ -21162,7 +21119,7 @@
       </c>
       <c r="I365"/>
     </row>
-    <row r="366" spans="1:9" ht="16">
+    <row r="366" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A366" s="31">
         <v>1</v>
       </c>
@@ -21171,7 +21128,7 @@
       </c>
       <c r="I366"/>
     </row>
-    <row r="367" spans="1:9" ht="16">
+    <row r="367" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A367" s="31">
         <v>1</v>
       </c>
@@ -21180,7 +21137,7 @@
       </c>
       <c r="I367"/>
     </row>
-    <row r="368" spans="1:9" ht="16">
+    <row r="368" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A368" s="31">
         <v>1</v>
       </c>
@@ -21189,7 +21146,7 @@
       </c>
       <c r="I368"/>
     </row>
-    <row r="369" spans="1:9" ht="16">
+    <row r="369" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A369" s="31">
         <v>1</v>
       </c>
@@ -21198,7 +21155,7 @@
       </c>
       <c r="I369"/>
     </row>
-    <row r="370" spans="1:9" ht="16">
+    <row r="370" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A370" s="31">
         <v>1</v>
       </c>
@@ -21207,7 +21164,7 @@
       </c>
       <c r="I370"/>
     </row>
-    <row r="371" spans="1:9" ht="16">
+    <row r="371" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A371" s="31">
         <v>1</v>
       </c>
@@ -21216,7 +21173,7 @@
       </c>
       <c r="I371"/>
     </row>
-    <row r="372" spans="1:9" ht="16">
+    <row r="372" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A372" s="31">
         <v>1</v>
       </c>
@@ -21225,7 +21182,7 @@
       </c>
       <c r="I372"/>
     </row>
-    <row r="373" spans="1:9" ht="16">
+    <row r="373" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A373" s="31">
         <v>1</v>
       </c>
@@ -21234,7 +21191,7 @@
       </c>
       <c r="I373"/>
     </row>
-    <row r="374" spans="1:9" ht="16">
+    <row r="374" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A374" s="31">
         <v>1</v>
       </c>
@@ -21243,7 +21200,7 @@
       </c>
       <c r="I374"/>
     </row>
-    <row r="375" spans="1:9" ht="16">
+    <row r="375" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A375" s="31">
         <v>1</v>
       </c>
@@ -21252,7 +21209,7 @@
       </c>
       <c r="I375"/>
     </row>
-    <row r="376" spans="1:9" ht="16">
+    <row r="376" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A376" s="31">
         <v>1</v>
       </c>
@@ -21261,7 +21218,7 @@
       </c>
       <c r="I376"/>
     </row>
-    <row r="377" spans="1:9" ht="16">
+    <row r="377" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A377" s="31">
         <v>1</v>
       </c>
@@ -21270,7 +21227,7 @@
       </c>
       <c r="I377"/>
     </row>
-    <row r="378" spans="1:9" ht="16">
+    <row r="378" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A378" s="31">
         <v>1</v>
       </c>
@@ -21279,7 +21236,7 @@
       </c>
       <c r="I378"/>
     </row>
-    <row r="379" spans="1:9" ht="16">
+    <row r="379" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A379" s="31">
         <v>1</v>
       </c>
@@ -21288,7 +21245,7 @@
       </c>
       <c r="I379"/>
     </row>
-    <row r="380" spans="1:9" ht="16">
+    <row r="380" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A380" s="31">
         <v>1</v>
       </c>
@@ -21297,7 +21254,7 @@
       </c>
       <c r="I380"/>
     </row>
-    <row r="381" spans="1:9" ht="16">
+    <row r="381" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A381" s="31">
         <v>1</v>
       </c>
@@ -21306,7 +21263,7 @@
       </c>
       <c r="I381"/>
     </row>
-    <row r="382" spans="1:9" ht="16">
+    <row r="382" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A382" s="31">
         <v>1</v>
       </c>
@@ -21315,7 +21272,7 @@
       </c>
       <c r="I382"/>
     </row>
-    <row r="383" spans="1:9" ht="16">
+    <row r="383" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A383" s="31">
         <v>1</v>
       </c>
@@ -21324,7 +21281,7 @@
       </c>
       <c r="I383"/>
     </row>
-    <row r="384" spans="1:9" ht="16">
+    <row r="384" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A384" s="31">
         <v>1</v>
       </c>
@@ -21333,7 +21290,7 @@
       </c>
       <c r="I384"/>
     </row>
-    <row r="385" spans="1:9" ht="16">
+    <row r="385" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A385" s="31">
         <v>1</v>
       </c>
@@ -21342,7 +21299,7 @@
       </c>
       <c r="I385"/>
     </row>
-    <row r="386" spans="1:9" ht="16">
+    <row r="386" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A386" s="31">
         <v>1</v>
       </c>
@@ -21351,7 +21308,7 @@
       </c>
       <c r="I386"/>
     </row>
-    <row r="387" spans="1:9" ht="16">
+    <row r="387" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A387" s="31">
         <v>1</v>
       </c>
@@ -21360,7 +21317,7 @@
       </c>
       <c r="I387"/>
     </row>
-    <row r="388" spans="1:9" ht="16">
+    <row r="388" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A388" s="31">
         <v>1</v>
       </c>
@@ -21369,7 +21326,7 @@
       </c>
       <c r="I388"/>
     </row>
-    <row r="389" spans="1:9" ht="16">
+    <row r="389" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A389" s="31">
         <v>1</v>
       </c>
@@ -21378,7 +21335,7 @@
       </c>
       <c r="I389"/>
     </row>
-    <row r="390" spans="1:9" ht="16">
+    <row r="390" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A390" s="31">
         <v>1</v>
       </c>
@@ -21387,7 +21344,7 @@
       </c>
       <c r="I390"/>
     </row>
-    <row r="391" spans="1:9" ht="16">
+    <row r="391" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A391" s="31">
         <v>1</v>
       </c>
@@ -21396,7 +21353,7 @@
       </c>
       <c r="I391"/>
     </row>
-    <row r="392" spans="1:9" ht="16">
+    <row r="392" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A392" s="31">
         <v>1</v>
       </c>
@@ -21405,7 +21362,7 @@
       </c>
       <c r="I392"/>
     </row>
-    <row r="393" spans="1:9" ht="16">
+    <row r="393" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A393" s="31">
         <v>1</v>
       </c>
@@ -21414,7 +21371,7 @@
       </c>
       <c r="I393"/>
     </row>
-    <row r="394" spans="1:9" ht="16">
+    <row r="394" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A394" s="31">
         <v>1</v>
       </c>
@@ -21423,7 +21380,7 @@
       </c>
       <c r="I394"/>
     </row>
-    <row r="395" spans="1:9" ht="16">
+    <row r="395" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A395" s="31">
         <v>1</v>
       </c>
@@ -21432,7 +21389,7 @@
       </c>
       <c r="I395"/>
     </row>
-    <row r="396" spans="1:9" ht="16">
+    <row r="396" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A396" s="31">
         <v>1</v>
       </c>
@@ -21441,7 +21398,7 @@
       </c>
       <c r="I396"/>
     </row>
-    <row r="397" spans="1:9" ht="16">
+    <row r="397" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A397" s="31">
         <v>1</v>
       </c>
@@ -21450,7 +21407,7 @@
       </c>
       <c r="I397"/>
     </row>
-    <row r="398" spans="1:9" ht="16">
+    <row r="398" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A398" s="31">
         <v>1</v>
       </c>
@@ -21459,7 +21416,7 @@
       </c>
       <c r="I398"/>
     </row>
-    <row r="399" spans="1:9" ht="16">
+    <row r="399" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A399" s="31">
         <v>1</v>
       </c>
@@ -21468,7 +21425,7 @@
       </c>
       <c r="I399"/>
     </row>
-    <row r="400" spans="1:9" ht="16">
+    <row r="400" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A400" s="31">
         <v>1</v>
       </c>
@@ -21477,7 +21434,7 @@
       </c>
       <c r="I400"/>
     </row>
-    <row r="401" spans="1:9" ht="16">
+    <row r="401" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A401" s="31">
         <v>1</v>
       </c>
@@ -21486,7 +21443,7 @@
       </c>
       <c r="I401"/>
     </row>
-    <row r="402" spans="1:9" ht="16">
+    <row r="402" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A402" s="31">
         <v>1</v>
       </c>
@@ -21495,7 +21452,7 @@
       </c>
       <c r="I402"/>
     </row>
-    <row r="403" spans="1:9" ht="16">
+    <row r="403" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A403" s="31">
         <v>1</v>
       </c>
@@ -21504,7 +21461,7 @@
       </c>
       <c r="I403"/>
     </row>
-    <row r="404" spans="1:9" ht="16">
+    <row r="404" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A404" s="31">
         <v>1</v>
       </c>
@@ -21513,7 +21470,7 @@
       </c>
       <c r="I404"/>
     </row>
-    <row r="405" spans="1:9" ht="16">
+    <row r="405" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A405" s="31">
         <v>1</v>
       </c>
@@ -21522,7 +21479,7 @@
       </c>
       <c r="I405"/>
     </row>
-    <row r="406" spans="1:9" ht="16">
+    <row r="406" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A406" s="31">
         <v>1</v>
       </c>
@@ -21531,7 +21488,7 @@
       </c>
       <c r="I406"/>
     </row>
-    <row r="407" spans="1:9" ht="16">
+    <row r="407" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A407" s="31">
         <v>1</v>
       </c>
@@ -21540,7 +21497,7 @@
       </c>
       <c r="I407"/>
     </row>
-    <row r="408" spans="1:9" ht="16">
+    <row r="408" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A408" s="31">
         <v>1</v>
       </c>
@@ -21549,7 +21506,7 @@
       </c>
       <c r="I408"/>
     </row>
-    <row r="409" spans="1:9" ht="16">
+    <row r="409" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A409" s="31">
         <v>1</v>
       </c>
@@ -21558,7 +21515,7 @@
       </c>
       <c r="I409"/>
     </row>
-    <row r="410" spans="1:9" ht="16">
+    <row r="410" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A410" s="31">
         <v>1</v>
       </c>
@@ -21567,7 +21524,7 @@
       </c>
       <c r="I410"/>
     </row>
-    <row r="411" spans="1:9" ht="16">
+    <row r="411" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A411" s="31">
         <v>1</v>
       </c>
@@ -21576,7 +21533,7 @@
       </c>
       <c r="I411"/>
     </row>
-    <row r="412" spans="1:9" ht="16">
+    <row r="412" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A412" s="31">
         <v>1</v>
       </c>
@@ -21585,7 +21542,7 @@
       </c>
       <c r="I412"/>
     </row>
-    <row r="413" spans="1:9" ht="16">
+    <row r="413" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A413" s="31">
         <v>1</v>
       </c>
@@ -21594,7 +21551,7 @@
       </c>
       <c r="I413"/>
     </row>
-    <row r="414" spans="1:9" ht="16">
+    <row r="414" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A414" s="31">
         <v>1</v>
       </c>
@@ -21603,7 +21560,7 @@
       </c>
       <c r="I414"/>
     </row>
-    <row r="415" spans="1:9" ht="16">
+    <row r="415" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A415" s="31">
         <v>1</v>
       </c>
@@ -21612,7 +21569,7 @@
       </c>
       <c r="I415"/>
     </row>
-    <row r="416" spans="1:9" ht="16">
+    <row r="416" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A416" s="31">
         <v>1</v>
       </c>
@@ -21621,7 +21578,7 @@
       </c>
       <c r="I416"/>
     </row>
-    <row r="417" spans="1:9" ht="16">
+    <row r="417" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A417" s="31">
         <v>1</v>
       </c>
@@ -21630,7 +21587,7 @@
       </c>
       <c r="I417"/>
     </row>
-    <row r="418" spans="1:9" ht="16">
+    <row r="418" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A418" s="31">
         <v>1</v>
       </c>
@@ -21639,7 +21596,7 @@
       </c>
       <c r="I418"/>
     </row>
-    <row r="419" spans="1:9" ht="16">
+    <row r="419" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A419" s="31">
         <v>1</v>
       </c>
@@ -21648,7 +21605,7 @@
       </c>
       <c r="I419"/>
     </row>
-    <row r="420" spans="1:9" ht="16">
+    <row r="420" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A420" s="31">
         <v>1</v>
       </c>
@@ -21657,7 +21614,7 @@
       </c>
       <c r="I420"/>
     </row>
-    <row r="421" spans="1:9" ht="16">
+    <row r="421" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A421" s="31">
         <v>1</v>
       </c>
@@ -21666,7 +21623,7 @@
       </c>
       <c r="I421"/>
     </row>
-    <row r="422" spans="1:9" ht="16">
+    <row r="422" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A422" s="31">
         <v>1</v>
       </c>
@@ -21675,7 +21632,7 @@
       </c>
       <c r="I422"/>
     </row>
-    <row r="423" spans="1:9" ht="16">
+    <row r="423" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A423" s="31">
         <v>1</v>
       </c>
@@ -21684,7 +21641,7 @@
       </c>
       <c r="I423"/>
     </row>
-    <row r="424" spans="1:9" ht="16">
+    <row r="424" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A424" s="31">
         <v>1</v>
       </c>
@@ -21693,7 +21650,7 @@
       </c>
       <c r="I424"/>
     </row>
-    <row r="425" spans="1:9" ht="16">
+    <row r="425" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A425" s="31">
         <v>1</v>
       </c>
@@ -21702,7 +21659,7 @@
       </c>
       <c r="I425"/>
     </row>
-    <row r="426" spans="1:9" ht="16">
+    <row r="426" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A426" s="31">
         <v>1</v>
       </c>
@@ -21711,7 +21668,7 @@
       </c>
       <c r="I426"/>
     </row>
-    <row r="427" spans="1:9" ht="16">
+    <row r="427" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A427" s="31">
         <v>1</v>
       </c>
@@ -21720,7 +21677,7 @@
       </c>
       <c r="I427"/>
     </row>
-    <row r="428" spans="1:9" ht="16">
+    <row r="428" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A428" s="31">
         <v>1</v>
       </c>
@@ -21729,7 +21686,7 @@
       </c>
       <c r="I428"/>
     </row>
-    <row r="429" spans="1:9" ht="16">
+    <row r="429" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A429" s="31">
         <v>1</v>
       </c>
@@ -21738,7 +21695,7 @@
       </c>
       <c r="I429"/>
     </row>
-    <row r="430" spans="1:9" ht="16">
+    <row r="430" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A430" s="31">
         <v>1</v>
       </c>
@@ -21747,7 +21704,7 @@
       </c>
       <c r="I430"/>
     </row>
-    <row r="431" spans="1:9" ht="16">
+    <row r="431" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A431" s="31">
         <v>1</v>
       </c>
@@ -21756,7 +21713,7 @@
       </c>
       <c r="I431"/>
     </row>
-    <row r="432" spans="1:9" ht="16">
+    <row r="432" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A432" s="31">
         <v>1</v>
       </c>
@@ -21765,7 +21722,7 @@
       </c>
       <c r="I432"/>
     </row>
-    <row r="433" spans="1:9" ht="17" thickBot="1">
+    <row r="433" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A433" s="31">
         <v>1</v>
       </c>
@@ -21774,14 +21731,14 @@
       </c>
       <c r="I433"/>
     </row>
-    <row r="434" spans="1:9" ht="15">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A434" s="32" t="s">
         <v>204</v>
       </c>
       <c r="B434" s="42"/>
       <c r="I434"/>
     </row>
-    <row r="435" spans="1:9" ht="16">
+    <row r="435" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A435" s="28">
         <v>5</v>
       </c>
@@ -21790,7 +21747,7 @@
       </c>
       <c r="I435"/>
     </row>
-    <row r="436" spans="1:9" ht="16">
+    <row r="436" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A436" s="28">
         <v>5</v>
       </c>
@@ -21799,7 +21756,7 @@
       </c>
       <c r="I436"/>
     </row>
-    <row r="437" spans="1:9" ht="16">
+    <row r="437" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A437" s="28">
         <v>5</v>
       </c>
@@ -21808,7 +21765,7 @@
       </c>
       <c r="I437"/>
     </row>
-    <row r="438" spans="1:9" ht="16">
+    <row r="438" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A438" s="28">
         <v>5</v>
       </c>
@@ -21817,7 +21774,7 @@
       </c>
       <c r="I438"/>
     </row>
-    <row r="439" spans="1:9" ht="16">
+    <row r="439" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A439" s="28">
         <v>5</v>
       </c>
@@ -21826,7 +21783,7 @@
       </c>
       <c r="I439"/>
     </row>
-    <row r="440" spans="1:9" ht="16">
+    <row r="440" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A440" s="28">
         <v>5</v>
       </c>
@@ -21835,7 +21792,7 @@
       </c>
       <c r="I440"/>
     </row>
-    <row r="441" spans="1:9" ht="16">
+    <row r="441" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A441" s="28">
         <v>5</v>
       </c>
@@ -21844,7 +21801,7 @@
       </c>
       <c r="I441"/>
     </row>
-    <row r="442" spans="1:9" ht="16">
+    <row r="442" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A442" s="28">
         <v>5</v>
       </c>
@@ -21853,7 +21810,7 @@
       </c>
       <c r="I442"/>
     </row>
-    <row r="443" spans="1:9" ht="16">
+    <row r="443" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A443" s="28">
         <v>5</v>
       </c>
@@ -21862,7 +21819,7 @@
       </c>
       <c r="I443"/>
     </row>
-    <row r="444" spans="1:9" ht="16">
+    <row r="444" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A444" s="28">
         <v>5</v>
       </c>
@@ -21871,7 +21828,7 @@
       </c>
       <c r="I444"/>
     </row>
-    <row r="445" spans="1:9" ht="16">
+    <row r="445" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A445" s="28">
         <v>5</v>
       </c>
@@ -21880,7 +21837,7 @@
       </c>
       <c r="I445"/>
     </row>
-    <row r="446" spans="1:9" ht="16">
+    <row r="446" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A446" s="28">
         <v>5</v>
       </c>
@@ -21889,7 +21846,7 @@
       </c>
       <c r="I446"/>
     </row>
-    <row r="447" spans="1:9" ht="16">
+    <row r="447" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A447" s="28">
         <v>5</v>
       </c>
@@ -21898,7 +21855,7 @@
       </c>
       <c r="I447"/>
     </row>
-    <row r="448" spans="1:9" ht="16">
+    <row r="448" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A448" s="28">
         <v>5</v>
       </c>
@@ -21907,7 +21864,7 @@
       </c>
       <c r="I448"/>
     </row>
-    <row r="449" spans="1:9" ht="16">
+    <row r="449" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A449" s="28">
         <v>5</v>
       </c>
@@ -21916,7 +21873,7 @@
       </c>
       <c r="I449"/>
     </row>
-    <row r="450" spans="1:9" ht="16">
+    <row r="450" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A450" s="28">
         <v>5</v>
       </c>
@@ -21925,7 +21882,7 @@
       </c>
       <c r="I450"/>
     </row>
-    <row r="451" spans="1:9" ht="16">
+    <row r="451" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A451" s="28">
         <v>5</v>
       </c>
@@ -21934,7 +21891,7 @@
       </c>
       <c r="I451"/>
     </row>
-    <row r="452" spans="1:9" ht="16">
+    <row r="452" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A452" s="28">
         <v>5</v>
       </c>
@@ -21943,7 +21900,7 @@
       </c>
       <c r="I452"/>
     </row>
-    <row r="453" spans="1:9" ht="16">
+    <row r="453" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A453" s="28">
         <v>5</v>
       </c>
@@ -21952,7 +21909,7 @@
       </c>
       <c r="I453"/>
     </row>
-    <row r="454" spans="1:9" ht="16">
+    <row r="454" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A454" s="28">
         <v>5</v>
       </c>
@@ -21961,7 +21918,7 @@
       </c>
       <c r="I454"/>
     </row>
-    <row r="455" spans="1:9" ht="16">
+    <row r="455" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A455" s="28">
         <v>5</v>
       </c>
@@ -21970,7 +21927,7 @@
       </c>
       <c r="I455"/>
     </row>
-    <row r="456" spans="1:9" ht="16">
+    <row r="456" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A456" s="28">
         <v>5</v>
       </c>
@@ -21979,7 +21936,7 @@
       </c>
       <c r="I456"/>
     </row>
-    <row r="457" spans="1:9" ht="16">
+    <row r="457" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A457" s="28">
         <v>5</v>
       </c>
@@ -21988,7 +21945,7 @@
       </c>
       <c r="I457"/>
     </row>
-    <row r="458" spans="1:9" ht="16">
+    <row r="458" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A458" s="28">
         <v>5</v>
       </c>
@@ -21997,7 +21954,7 @@
       </c>
       <c r="I458"/>
     </row>
-    <row r="459" spans="1:9" ht="16">
+    <row r="459" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A459" s="28">
         <v>5</v>
       </c>
@@ -22006,7 +21963,7 @@
       </c>
       <c r="I459"/>
     </row>
-    <row r="460" spans="1:9" ht="16">
+    <row r="460" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A460" s="28">
         <v>5</v>
       </c>
@@ -22015,7 +21972,7 @@
       </c>
       <c r="I460"/>
     </row>
-    <row r="461" spans="1:9" ht="16">
+    <row r="461" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A461" s="28">
         <v>5</v>
       </c>
@@ -22024,7 +21981,7 @@
       </c>
       <c r="I461"/>
     </row>
-    <row r="462" spans="1:9" ht="16">
+    <row r="462" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A462" s="28">
         <v>5</v>
       </c>
@@ -22033,7 +21990,7 @@
       </c>
       <c r="I462"/>
     </row>
-    <row r="463" spans="1:9" ht="16">
+    <row r="463" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A463" s="28">
         <v>5</v>
       </c>
@@ -22042,7 +21999,7 @@
       </c>
       <c r="I463"/>
     </row>
-    <row r="464" spans="1:9" ht="16">
+    <row r="464" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A464" s="28">
         <v>5</v>
       </c>
@@ -22051,7 +22008,7 @@
       </c>
       <c r="I464"/>
     </row>
-    <row r="465" spans="1:9" ht="16">
+    <row r="465" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A465" s="28">
         <v>5</v>
       </c>
@@ -22060,7 +22017,7 @@
       </c>
       <c r="I465"/>
     </row>
-    <row r="466" spans="1:9" ht="16">
+    <row r="466" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A466" s="28">
         <v>5</v>
       </c>
@@ -22069,12 +22026,12 @@
       </c>
       <c r="I466"/>
     </row>
-    <row r="467" spans="1:9">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A467"/>
       <c r="B467"/>
       <c r="I467"/>
     </row>
-    <row r="468" spans="1:9" ht="16">
+    <row r="468" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A468" s="28">
         <v>5</v>
       </c>
@@ -22083,7 +22040,7 @@
       </c>
       <c r="I468"/>
     </row>
-    <row r="469" spans="1:9" ht="16">
+    <row r="469" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A469" s="28">
         <v>5</v>
       </c>
@@ -22092,7 +22049,7 @@
       </c>
       <c r="I469"/>
     </row>
-    <row r="470" spans="1:9" ht="16">
+    <row r="470" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A470" s="28">
         <v>5</v>
       </c>
@@ -22101,7 +22058,7 @@
       </c>
       <c r="I470"/>
     </row>
-    <row r="471" spans="1:9" ht="16">
+    <row r="471" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A471" s="28">
         <v>5</v>
       </c>
@@ -22110,7 +22067,7 @@
       </c>
       <c r="I471"/>
     </row>
-    <row r="472" spans="1:9" ht="16">
+    <row r="472" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A472" s="28">
         <v>5</v>
       </c>
@@ -22119,7 +22076,7 @@
       </c>
       <c r="I472"/>
     </row>
-    <row r="473" spans="1:9" ht="16">
+    <row r="473" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A473" s="28">
         <v>5</v>
       </c>
@@ -22128,7 +22085,7 @@
       </c>
       <c r="I473"/>
     </row>
-    <row r="474" spans="1:9" ht="16">
+    <row r="474" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A474" s="28">
         <v>5</v>
       </c>
@@ -22137,7 +22094,7 @@
       </c>
       <c r="I474"/>
     </row>
-    <row r="475" spans="1:9" ht="16">
+    <row r="475" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A475" s="28">
         <v>5</v>
       </c>
@@ -22146,7 +22103,7 @@
       </c>
       <c r="I475"/>
     </row>
-    <row r="476" spans="1:9" ht="16">
+    <row r="476" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A476" s="28">
         <v>5</v>
       </c>
@@ -22155,7 +22112,7 @@
       </c>
       <c r="I476"/>
     </row>
-    <row r="477" spans="1:9" ht="16">
+    <row r="477" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A477" s="28">
         <v>5</v>
       </c>
@@ -22164,7 +22121,7 @@
       </c>
       <c r="I477"/>
     </row>
-    <row r="478" spans="1:9" ht="16">
+    <row r="478" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A478" s="28">
         <v>5</v>
       </c>
@@ -22173,7 +22130,7 @@
       </c>
       <c r="I478"/>
     </row>
-    <row r="479" spans="1:9" ht="16">
+    <row r="479" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A479" s="28">
         <v>5</v>
       </c>
@@ -22182,7 +22139,7 @@
       </c>
       <c r="I479"/>
     </row>
-    <row r="480" spans="1:9" ht="16">
+    <row r="480" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A480" s="28">
         <v>5</v>
       </c>
@@ -22191,7 +22148,7 @@
       </c>
       <c r="I480"/>
     </row>
-    <row r="481" spans="1:9" ht="16">
+    <row r="481" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A481" s="28">
         <v>5</v>
       </c>
@@ -22200,7 +22157,7 @@
       </c>
       <c r="I481"/>
     </row>
-    <row r="482" spans="1:9" ht="16">
+    <row r="482" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A482" s="28">
         <v>5</v>
       </c>
@@ -22209,7 +22166,7 @@
       </c>
       <c r="I482"/>
     </row>
-    <row r="483" spans="1:9" ht="16">
+    <row r="483" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A483" s="28">
         <v>5</v>
       </c>
@@ -22218,7 +22175,7 @@
       </c>
       <c r="I483"/>
     </row>
-    <row r="484" spans="1:9" ht="16">
+    <row r="484" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A484" s="28">
         <v>5</v>
       </c>
@@ -22227,7 +22184,7 @@
       </c>
       <c r="I484"/>
     </row>
-    <row r="485" spans="1:9" ht="16">
+    <row r="485" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A485" s="28">
         <v>5</v>
       </c>
@@ -22236,7 +22193,7 @@
       </c>
       <c r="I485"/>
     </row>
-    <row r="486" spans="1:9" ht="16">
+    <row r="486" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A486" s="28">
         <v>5</v>
       </c>
@@ -22245,7 +22202,7 @@
       </c>
       <c r="I486"/>
     </row>
-    <row r="487" spans="1:9" ht="16">
+    <row r="487" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A487" s="28">
         <v>5</v>
       </c>
@@ -22254,7 +22211,7 @@
       </c>
       <c r="I487"/>
     </row>
-    <row r="488" spans="1:9" ht="16">
+    <row r="488" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A488" s="28">
         <v>5</v>
       </c>
@@ -22263,7 +22220,7 @@
       </c>
       <c r="I488"/>
     </row>
-    <row r="489" spans="1:9" ht="16">
+    <row r="489" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A489" s="28">
         <v>5</v>
       </c>
@@ -22272,7 +22229,7 @@
       </c>
       <c r="I489"/>
     </row>
-    <row r="490" spans="1:9" ht="16">
+    <row r="490" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A490" s="28">
         <v>5</v>
       </c>
@@ -22281,7 +22238,7 @@
       </c>
       <c r="I490"/>
     </row>
-    <row r="491" spans="1:9" ht="16">
+    <row r="491" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A491" s="28">
         <v>5</v>
       </c>
@@ -22290,7 +22247,7 @@
       </c>
       <c r="I491"/>
     </row>
-    <row r="492" spans="1:9" ht="16">
+    <row r="492" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A492" s="28">
         <v>5</v>
       </c>
@@ -22299,7 +22256,7 @@
       </c>
       <c r="I492"/>
     </row>
-    <row r="493" spans="1:9" ht="16">
+    <row r="493" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A493" s="28">
         <v>5</v>
       </c>
@@ -22308,7 +22265,7 @@
       </c>
       <c r="I493"/>
     </row>
-    <row r="494" spans="1:9" ht="16">
+    <row r="494" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A494" s="28">
         <v>5</v>
       </c>
@@ -22317,7 +22274,7 @@
       </c>
       <c r="I494"/>
     </row>
-    <row r="495" spans="1:9" ht="16">
+    <row r="495" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A495" s="28">
         <v>5</v>
       </c>
@@ -22326,7 +22283,7 @@
       </c>
       <c r="I495"/>
     </row>
-    <row r="496" spans="1:9" ht="16">
+    <row r="496" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A496" s="28">
         <v>5</v>
       </c>
@@ -22335,7 +22292,7 @@
       </c>
       <c r="I496"/>
     </row>
-    <row r="497" spans="1:9" ht="16">
+    <row r="497" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A497" s="28">
         <v>5</v>
       </c>
@@ -22344,7 +22301,7 @@
       </c>
       <c r="I497"/>
     </row>
-    <row r="498" spans="1:9" ht="16">
+    <row r="498" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A498" s="28">
         <v>5</v>
       </c>
@@ -22353,7 +22310,7 @@
       </c>
       <c r="I498"/>
     </row>
-    <row r="499" spans="1:9" ht="16">
+    <row r="499" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A499" s="28">
         <v>5</v>
       </c>
@@ -22362,7 +22319,7 @@
       </c>
       <c r="I499"/>
     </row>
-    <row r="500" spans="1:9" ht="16">
+    <row r="500" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A500" s="28">
         <v>5</v>
       </c>
@@ -22371,7 +22328,7 @@
       </c>
       <c r="I500"/>
     </row>
-    <row r="501" spans="1:9" ht="16">
+    <row r="501" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A501" s="28">
         <v>5</v>
       </c>
@@ -22380,7 +22337,7 @@
       </c>
       <c r="I501"/>
     </row>
-    <row r="502" spans="1:9" ht="17" thickBot="1">
+    <row r="502" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A502" s="28">
         <v>5</v>
       </c>
@@ -22389,14 +22346,14 @@
       </c>
       <c r="I502"/>
     </row>
-    <row r="503" spans="1:9" ht="15">
+    <row r="503" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A503" s="29" t="s">
         <v>205</v>
       </c>
       <c r="B503" s="44"/>
       <c r="I503"/>
     </row>
-    <row r="504" spans="1:9" ht="16">
+    <row r="504" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A504" s="28">
         <v>4</v>
       </c>
@@ -22405,7 +22362,7 @@
       </c>
       <c r="I504"/>
     </row>
-    <row r="505" spans="1:9" ht="16">
+    <row r="505" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A505" s="28">
         <v>4</v>
       </c>
@@ -22414,7 +22371,7 @@
       </c>
       <c r="I505"/>
     </row>
-    <row r="506" spans="1:9" ht="16">
+    <row r="506" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A506" s="28">
         <v>4</v>
       </c>
@@ -22423,7 +22380,7 @@
       </c>
       <c r="I506"/>
     </row>
-    <row r="507" spans="1:9" ht="16">
+    <row r="507" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A507" s="28">
         <v>4</v>
       </c>
@@ -22432,7 +22389,7 @@
       </c>
       <c r="I507"/>
     </row>
-    <row r="508" spans="1:9" ht="16">
+    <row r="508" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A508" s="28">
         <v>4</v>
       </c>
@@ -22441,7 +22398,7 @@
       </c>
       <c r="I508"/>
     </row>
-    <row r="509" spans="1:9" ht="16">
+    <row r="509" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A509" s="28">
         <v>4</v>
       </c>
@@ -22450,7 +22407,7 @@
       </c>
       <c r="I509"/>
     </row>
-    <row r="510" spans="1:9" ht="16">
+    <row r="510" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A510" s="28">
         <v>4</v>
       </c>
@@ -22459,7 +22416,7 @@
       </c>
       <c r="I510"/>
     </row>
-    <row r="511" spans="1:9" ht="16">
+    <row r="511" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A511" s="28">
         <v>4</v>
       </c>
@@ -22468,7 +22425,7 @@
       </c>
       <c r="I511"/>
     </row>
-    <row r="512" spans="1:9" ht="16">
+    <row r="512" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A512" s="28">
         <v>4</v>
       </c>
@@ -22477,7 +22434,7 @@
       </c>
       <c r="I512"/>
     </row>
-    <row r="513" spans="1:9" ht="16">
+    <row r="513" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A513" s="28">
         <v>4</v>
       </c>
@@ -22486,7 +22443,7 @@
       </c>
       <c r="I513"/>
     </row>
-    <row r="514" spans="1:9" ht="16">
+    <row r="514" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A514" s="28">
         <v>4</v>
       </c>
@@ -22495,7 +22452,7 @@
       </c>
       <c r="I514"/>
     </row>
-    <row r="515" spans="1:9" ht="16">
+    <row r="515" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A515" s="28">
         <v>4</v>
       </c>
@@ -22504,7 +22461,7 @@
       </c>
       <c r="I515"/>
     </row>
-    <row r="516" spans="1:9" ht="16">
+    <row r="516" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A516" s="28">
         <v>4</v>
       </c>
@@ -22513,7 +22470,7 @@
       </c>
       <c r="I516"/>
     </row>
-    <row r="517" spans="1:9" ht="16">
+    <row r="517" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A517" s="28">
         <v>4</v>
       </c>
@@ -22522,7 +22479,7 @@
       </c>
       <c r="I517"/>
     </row>
-    <row r="518" spans="1:9" ht="16">
+    <row r="518" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A518" s="28">
         <v>4</v>
       </c>
@@ -22531,7 +22488,7 @@
       </c>
       <c r="I518"/>
     </row>
-    <row r="519" spans="1:9" ht="16">
+    <row r="519" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A519" s="28">
         <v>4</v>
       </c>
@@ -22540,7 +22497,7 @@
       </c>
       <c r="I519"/>
     </row>
-    <row r="520" spans="1:9" ht="16">
+    <row r="520" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A520" s="28">
         <v>4</v>
       </c>
@@ -22549,7 +22506,7 @@
       </c>
       <c r="I520"/>
     </row>
-    <row r="521" spans="1:9" ht="16">
+    <row r="521" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A521" s="28">
         <v>4</v>
       </c>
@@ -22558,7 +22515,7 @@
       </c>
       <c r="I521"/>
     </row>
-    <row r="522" spans="1:9" ht="16">
+    <row r="522" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A522" s="28">
         <v>4</v>
       </c>
@@ -22567,7 +22524,7 @@
       </c>
       <c r="I522"/>
     </row>
-    <row r="523" spans="1:9" ht="16">
+    <row r="523" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A523" s="28">
         <v>4</v>
       </c>
@@ -22576,7 +22533,7 @@
       </c>
       <c r="I523"/>
     </row>
-    <row r="524" spans="1:9" ht="16">
+    <row r="524" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A524" s="28">
         <v>4</v>
       </c>
@@ -22585,7 +22542,7 @@
       </c>
       <c r="I524"/>
     </row>
-    <row r="525" spans="1:9" ht="16">
+    <row r="525" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A525" s="28">
         <v>4</v>
       </c>
@@ -22594,7 +22551,7 @@
       </c>
       <c r="I525"/>
     </row>
-    <row r="526" spans="1:9" ht="16">
+    <row r="526" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A526" s="28">
         <v>4</v>
       </c>
@@ -22603,7 +22560,7 @@
       </c>
       <c r="I526"/>
     </row>
-    <row r="527" spans="1:9" ht="16">
+    <row r="527" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A527" s="28">
         <v>4</v>
       </c>
@@ -22612,7 +22569,7 @@
       </c>
       <c r="I527"/>
     </row>
-    <row r="528" spans="1:9" ht="16">
+    <row r="528" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A528" s="28">
         <v>4</v>
       </c>
@@ -22621,7 +22578,7 @@
       </c>
       <c r="I528"/>
     </row>
-    <row r="529" spans="1:9" ht="16">
+    <row r="529" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A529" s="28">
         <v>4</v>
       </c>
@@ -22630,7 +22587,7 @@
       </c>
       <c r="I529"/>
     </row>
-    <row r="530" spans="1:9" ht="16">
+    <row r="530" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A530" s="28">
         <v>4</v>
       </c>
@@ -22639,7 +22596,7 @@
       </c>
       <c r="I530"/>
     </row>
-    <row r="531" spans="1:9" ht="16">
+    <row r="531" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A531" s="28">
         <v>4</v>
       </c>
@@ -22648,7 +22605,7 @@
       </c>
       <c r="I531"/>
     </row>
-    <row r="532" spans="1:9" ht="16">
+    <row r="532" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A532" s="28">
         <v>4</v>
       </c>
@@ -22657,7 +22614,7 @@
       </c>
       <c r="I532"/>
     </row>
-    <row r="533" spans="1:9" ht="16">
+    <row r="533" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A533" s="28">
         <v>4</v>
       </c>
@@ -22666,7 +22623,7 @@
       </c>
       <c r="I533"/>
     </row>
-    <row r="534" spans="1:9" ht="16">
+    <row r="534" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A534" s="28">
         <v>4</v>
       </c>
@@ -22675,7 +22632,7 @@
       </c>
       <c r="I534"/>
     </row>
-    <row r="535" spans="1:9" ht="16">
+    <row r="535" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A535" s="28">
         <v>4</v>
       </c>
@@ -22684,7 +22641,7 @@
       </c>
       <c r="I535"/>
     </row>
-    <row r="536" spans="1:9" ht="16">
+    <row r="536" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A536" s="28">
         <v>4</v>
       </c>
@@ -22693,7 +22650,7 @@
       </c>
       <c r="I536"/>
     </row>
-    <row r="537" spans="1:9" ht="16">
+    <row r="537" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A537" s="28">
         <v>4</v>
       </c>
@@ -22702,7 +22659,7 @@
       </c>
       <c r="I537"/>
     </row>
-    <row r="538" spans="1:9" ht="16">
+    <row r="538" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A538" s="28">
         <v>4</v>
       </c>
@@ -22711,7 +22668,7 @@
       </c>
       <c r="I538"/>
     </row>
-    <row r="539" spans="1:9" ht="16">
+    <row r="539" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A539" s="28">
         <v>4</v>
       </c>
@@ -22720,7 +22677,7 @@
       </c>
       <c r="I539"/>
     </row>
-    <row r="540" spans="1:9" ht="16">
+    <row r="540" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A540" s="28">
         <v>4</v>
       </c>
@@ -22729,7 +22686,7 @@
       </c>
       <c r="I540"/>
     </row>
-    <row r="541" spans="1:9" ht="16">
+    <row r="541" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A541" s="28">
         <v>4</v>
       </c>
@@ -22738,7 +22695,7 @@
       </c>
       <c r="I541"/>
     </row>
-    <row r="542" spans="1:9" ht="16">
+    <row r="542" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A542" s="28">
         <v>4</v>
       </c>
@@ -22747,7 +22704,7 @@
       </c>
       <c r="I542"/>
     </row>
-    <row r="543" spans="1:9" ht="16">
+    <row r="543" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A543" s="28">
         <v>4</v>
       </c>
@@ -22756,7 +22713,7 @@
       </c>
       <c r="I543"/>
     </row>
-    <row r="544" spans="1:9" ht="16">
+    <row r="544" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A544" s="28">
         <v>4</v>
       </c>
@@ -22765,7 +22722,7 @@
       </c>
       <c r="I544"/>
     </row>
-    <row r="545" spans="1:9" ht="16">
+    <row r="545" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A545" s="28">
         <v>4</v>
       </c>
@@ -22774,7 +22731,7 @@
       </c>
       <c r="I545"/>
     </row>
-    <row r="546" spans="1:9" ht="16">
+    <row r="546" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A546" s="28">
         <v>4</v>
       </c>
@@ -22783,7 +22740,7 @@
       </c>
       <c r="I546"/>
     </row>
-    <row r="547" spans="1:9" ht="16">
+    <row r="547" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A547" s="28">
         <v>4</v>
       </c>
@@ -22792,7 +22749,7 @@
       </c>
       <c r="I547"/>
     </row>
-    <row r="548" spans="1:9" ht="16">
+    <row r="548" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A548" s="28">
         <v>4</v>
       </c>
@@ -22801,7 +22758,7 @@
       </c>
       <c r="I548"/>
     </row>
-    <row r="549" spans="1:9" ht="16">
+    <row r="549" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A549" s="28">
         <v>4</v>
       </c>
@@ -22810,7 +22767,7 @@
       </c>
       <c r="I549"/>
     </row>
-    <row r="550" spans="1:9" ht="16">
+    <row r="550" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A550" s="28">
         <v>4</v>
       </c>
@@ -22819,7 +22776,7 @@
       </c>
       <c r="I550"/>
     </row>
-    <row r="551" spans="1:9" ht="16">
+    <row r="551" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A551" s="28">
         <v>4</v>
       </c>
@@ -22828,7 +22785,7 @@
       </c>
       <c r="I551"/>
     </row>
-    <row r="552" spans="1:9" ht="16">
+    <row r="552" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A552" s="28">
         <v>4</v>
       </c>
@@ -22837,7 +22794,7 @@
       </c>
       <c r="I552"/>
     </row>
-    <row r="553" spans="1:9" ht="16">
+    <row r="553" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A553" s="28">
         <v>4</v>
       </c>
@@ -22846,7 +22803,7 @@
       </c>
       <c r="I553"/>
     </row>
-    <row r="554" spans="1:9" ht="16">
+    <row r="554" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A554" s="28">
         <v>4</v>
       </c>
@@ -22855,7 +22812,7 @@
       </c>
       <c r="I554"/>
     </row>
-    <row r="555" spans="1:9" ht="16">
+    <row r="555" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A555" s="28">
         <v>4</v>
       </c>
@@ -22864,7 +22821,7 @@
       </c>
       <c r="I555"/>
     </row>
-    <row r="556" spans="1:9" ht="16">
+    <row r="556" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A556" s="28">
         <v>4</v>
       </c>
@@ -22873,7 +22830,7 @@
       </c>
       <c r="I556"/>
     </row>
-    <row r="557" spans="1:9" ht="16">
+    <row r="557" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A557" s="28">
         <v>4</v>
       </c>
@@ -22882,7 +22839,7 @@
       </c>
       <c r="I557"/>
     </row>
-    <row r="558" spans="1:9" ht="16">
+    <row r="558" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A558" s="28">
         <v>4</v>
       </c>
@@ -22891,7 +22848,7 @@
       </c>
       <c r="I558"/>
     </row>
-    <row r="559" spans="1:9" ht="16">
+    <row r="559" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A559" s="28">
         <v>4</v>
       </c>
@@ -22900,7 +22857,7 @@
       </c>
       <c r="I559"/>
     </row>
-    <row r="560" spans="1:9" ht="16">
+    <row r="560" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A560" s="28">
         <v>4</v>
       </c>
@@ -22909,7 +22866,7 @@
       </c>
       <c r="I560"/>
     </row>
-    <row r="561" spans="1:9" ht="16">
+    <row r="561" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A561" s="28">
         <v>4</v>
       </c>
@@ -22918,7 +22875,7 @@
       </c>
       <c r="I561"/>
     </row>
-    <row r="562" spans="1:9" ht="16">
+    <row r="562" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A562" s="28">
         <v>4</v>
       </c>
@@ -22927,7 +22884,7 @@
       </c>
       <c r="I562"/>
     </row>
-    <row r="563" spans="1:9" ht="16">
+    <row r="563" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A563" s="28">
         <v>4</v>
       </c>
@@ -22936,7 +22893,7 @@
       </c>
       <c r="I563"/>
     </row>
-    <row r="564" spans="1:9" ht="16">
+    <row r="564" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A564" s="28">
         <v>4</v>
       </c>
@@ -22945,7 +22902,7 @@
       </c>
       <c r="I564"/>
     </row>
-    <row r="565" spans="1:9" ht="16">
+    <row r="565" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A565" s="28">
         <v>4</v>
       </c>
@@ -22954,7 +22911,7 @@
       </c>
       <c r="I565"/>
     </row>
-    <row r="566" spans="1:9" ht="16">
+    <row r="566" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A566" s="28">
         <v>4</v>
       </c>
@@ -22963,7 +22920,7 @@
       </c>
       <c r="I566"/>
     </row>
-    <row r="567" spans="1:9" ht="16">
+    <row r="567" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A567" s="28">
         <v>4</v>
       </c>
@@ -22972,7 +22929,7 @@
       </c>
       <c r="I567"/>
     </row>
-    <row r="568" spans="1:9" ht="16">
+    <row r="568" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A568" s="28">
         <v>4</v>
       </c>
@@ -22981,7 +22938,7 @@
       </c>
       <c r="I568"/>
     </row>
-    <row r="569" spans="1:9" ht="16">
+    <row r="569" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A569" s="28">
         <v>4</v>
       </c>
@@ -22990,7 +22947,7 @@
       </c>
       <c r="I569"/>
     </row>
-    <row r="570" spans="1:9" ht="16">
+    <row r="570" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A570" s="28">
         <v>4</v>
       </c>
@@ -22999,7 +22956,7 @@
       </c>
       <c r="I570"/>
     </row>
-    <row r="571" spans="1:9" ht="16">
+    <row r="571" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A571" s="28">
         <v>4</v>
       </c>
@@ -23008,7 +22965,7 @@
       </c>
       <c r="I571"/>
     </row>
-    <row r="572" spans="1:9" ht="16">
+    <row r="572" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A572" s="28">
         <v>4</v>
       </c>
@@ -23017,7 +22974,7 @@
       </c>
       <c r="I572"/>
     </row>
-    <row r="573" spans="1:9" ht="16">
+    <row r="573" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A573" s="28">
         <v>4</v>
       </c>
@@ -23026,7 +22983,7 @@
       </c>
       <c r="I573"/>
     </row>
-    <row r="574" spans="1:9" ht="16">
+    <row r="574" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A574" s="28">
         <v>4</v>
       </c>
@@ -23035,7 +22992,7 @@
       </c>
       <c r="I574"/>
     </row>
-    <row r="575" spans="1:9" ht="16">
+    <row r="575" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A575" s="28">
         <v>4</v>
       </c>
@@ -23044,7 +23001,7 @@
       </c>
       <c r="I575"/>
     </row>
-    <row r="576" spans="1:9" ht="16">
+    <row r="576" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A576" s="28">
         <v>4</v>
       </c>
@@ -23053,7 +23010,7 @@
       </c>
       <c r="I576"/>
     </row>
-    <row r="577" spans="1:9" ht="16">
+    <row r="577" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A577" s="28">
         <v>4</v>
       </c>
@@ -23062,7 +23019,7 @@
       </c>
       <c r="I577"/>
     </row>
-    <row r="578" spans="1:9" ht="16">
+    <row r="578" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A578" s="28">
         <v>4</v>
       </c>
@@ -23071,7 +23028,7 @@
       </c>
       <c r="I578"/>
     </row>
-    <row r="579" spans="1:9" ht="16">
+    <row r="579" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A579" s="28">
         <v>4</v>
       </c>
@@ -23080,7 +23037,7 @@
       </c>
       <c r="I579"/>
     </row>
-    <row r="580" spans="1:9" ht="16">
+    <row r="580" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A580" s="28">
         <v>4</v>
       </c>
@@ -23089,7 +23046,7 @@
       </c>
       <c r="I580"/>
     </row>
-    <row r="581" spans="1:9" ht="16">
+    <row r="581" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A581" s="28">
         <v>4</v>
       </c>
@@ -23098,7 +23055,7 @@
       </c>
       <c r="I581"/>
     </row>
-    <row r="582" spans="1:9" ht="16">
+    <row r="582" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A582" s="28">
         <v>4</v>
       </c>
@@ -23107,7 +23064,7 @@
       </c>
       <c r="I582"/>
     </row>
-    <row r="583" spans="1:9" ht="16">
+    <row r="583" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A583" s="28">
         <v>4</v>
       </c>
@@ -23116,7 +23073,7 @@
       </c>
       <c r="I583"/>
     </row>
-    <row r="584" spans="1:9" ht="16">
+    <row r="584" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A584" s="28">
         <v>4</v>
       </c>
@@ -23125,7 +23082,7 @@
       </c>
       <c r="I584"/>
     </row>
-    <row r="585" spans="1:9" ht="16">
+    <row r="585" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A585" s="28">
         <v>4</v>
       </c>
@@ -23134,7 +23091,7 @@
       </c>
       <c r="I585"/>
     </row>
-    <row r="586" spans="1:9" ht="16">
+    <row r="586" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A586" s="28">
         <v>4</v>
       </c>
@@ -23143,7 +23100,7 @@
       </c>
       <c r="I586"/>
     </row>
-    <row r="587" spans="1:9" ht="16">
+    <row r="587" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A587" s="28">
         <v>4</v>
       </c>
@@ -23152,7 +23109,7 @@
       </c>
       <c r="I587"/>
     </row>
-    <row r="588" spans="1:9" ht="16">
+    <row r="588" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A588" s="28">
         <v>4</v>
       </c>
@@ -23161,7 +23118,7 @@
       </c>
       <c r="I588"/>
     </row>
-    <row r="589" spans="1:9" ht="16">
+    <row r="589" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A589" s="28">
         <v>4</v>
       </c>
@@ -23170,7 +23127,7 @@
       </c>
       <c r="I589"/>
     </row>
-    <row r="590" spans="1:9" ht="16">
+    <row r="590" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A590" s="28">
         <v>4</v>
       </c>
@@ -23179,7 +23136,7 @@
       </c>
       <c r="I590"/>
     </row>
-    <row r="591" spans="1:9" ht="16">
+    <row r="591" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A591" s="28">
         <v>4</v>
       </c>
@@ -23188,7 +23145,7 @@
       </c>
       <c r="I591"/>
     </row>
-    <row r="592" spans="1:9" ht="16">
+    <row r="592" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A592" s="28">
         <v>4</v>
       </c>
@@ -23197,7 +23154,7 @@
       </c>
       <c r="I592"/>
     </row>
-    <row r="593" spans="1:9" ht="16">
+    <row r="593" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A593" s="28">
         <v>4</v>
       </c>
@@ -23206,7 +23163,7 @@
       </c>
       <c r="I593"/>
     </row>
-    <row r="594" spans="1:9" ht="16">
+    <row r="594" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A594" s="28">
         <v>4</v>
       </c>
@@ -23215,7 +23172,7 @@
       </c>
       <c r="I594"/>
     </row>
-    <row r="595" spans="1:9" ht="16">
+    <row r="595" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A595" s="28">
         <v>4</v>
       </c>
@@ -23224,7 +23181,7 @@
       </c>
       <c r="I595"/>
     </row>
-    <row r="596" spans="1:9" ht="16">
+    <row r="596" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A596" s="28">
         <v>4</v>
       </c>
@@ -23233,7 +23190,7 @@
       </c>
       <c r="I596"/>
     </row>
-    <row r="597" spans="1:9" ht="17" thickBot="1">
+    <row r="597" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A597" s="28">
         <v>4</v>
       </c>
@@ -23242,12 +23199,12 @@
       </c>
       <c r="I597"/>
     </row>
-    <row r="598" spans="1:9">
+    <row r="598" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A598"/>
       <c r="B598"/>
       <c r="I598"/>
     </row>
-    <row r="599" spans="1:9" ht="16">
+    <row r="599" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A599" s="28">
         <v>4</v>
       </c>
@@ -23256,7 +23213,7 @@
       </c>
       <c r="I599"/>
     </row>
-    <row r="600" spans="1:9" ht="16">
+    <row r="600" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A600" s="28">
         <v>4</v>
       </c>
@@ -23265,7 +23222,7 @@
       </c>
       <c r="I600"/>
     </row>
-    <row r="601" spans="1:9" ht="16">
+    <row r="601" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A601" s="28">
         <v>4</v>
       </c>
@@ -23274,7 +23231,7 @@
       </c>
       <c r="I601"/>
     </row>
-    <row r="602" spans="1:9" ht="16">
+    <row r="602" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A602" s="28">
         <v>4</v>
       </c>
@@ -23283,7 +23240,7 @@
       </c>
       <c r="I602"/>
     </row>
-    <row r="603" spans="1:9" ht="16">
+    <row r="603" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A603" s="28">
         <v>4</v>
       </c>
@@ -23292,7 +23249,7 @@
       </c>
       <c r="I603"/>
     </row>
-    <row r="604" spans="1:9" ht="16">
+    <row r="604" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A604" s="28">
         <v>4</v>
       </c>
@@ -23301,7 +23258,7 @@
       </c>
       <c r="I604"/>
     </row>
-    <row r="605" spans="1:9" ht="16">
+    <row r="605" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A605" s="28">
         <v>4</v>
       </c>
@@ -23310,7 +23267,7 @@
       </c>
       <c r="I605"/>
     </row>
-    <row r="606" spans="1:9" ht="16">
+    <row r="606" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A606" s="28">
         <v>4</v>
       </c>
@@ -23319,7 +23276,7 @@
       </c>
       <c r="I606"/>
     </row>
-    <row r="607" spans="1:9" ht="16">
+    <row r="607" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A607" s="28">
         <v>4</v>
       </c>
@@ -23328,7 +23285,7 @@
       </c>
       <c r="I607"/>
     </row>
-    <row r="608" spans="1:9" ht="16">
+    <row r="608" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A608" s="28">
         <v>4</v>
       </c>
@@ -23337,7 +23294,7 @@
       </c>
       <c r="I608"/>
     </row>
-    <row r="609" spans="1:9" ht="16">
+    <row r="609" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A609" s="28">
         <v>4</v>
       </c>
@@ -23346,7 +23303,7 @@
       </c>
       <c r="I609"/>
     </row>
-    <row r="610" spans="1:9" ht="16">
+    <row r="610" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A610" s="28">
         <v>4</v>
       </c>
@@ -23355,7 +23312,7 @@
       </c>
       <c r="I610"/>
     </row>
-    <row r="611" spans="1:9" ht="16">
+    <row r="611" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A611" s="28">
         <v>4</v>
       </c>
@@ -23364,7 +23321,7 @@
       </c>
       <c r="I611"/>
     </row>
-    <row r="612" spans="1:9" ht="16">
+    <row r="612" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A612" s="28">
         <v>4</v>
       </c>
@@ -23373,7 +23330,7 @@
       </c>
       <c r="I612"/>
     </row>
-    <row r="613" spans="1:9" ht="16">
+    <row r="613" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A613" s="28">
         <v>4</v>
       </c>
@@ -23382,7 +23339,7 @@
       </c>
       <c r="I613"/>
     </row>
-    <row r="614" spans="1:9" ht="16">
+    <row r="614" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A614" s="28">
         <v>4</v>
       </c>
@@ -23391,7 +23348,7 @@
       </c>
       <c r="I614"/>
     </row>
-    <row r="615" spans="1:9" ht="16">
+    <row r="615" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A615" s="28">
         <v>4</v>
       </c>
@@ -23400,7 +23357,7 @@
       </c>
       <c r="I615"/>
     </row>
-    <row r="616" spans="1:9" ht="16">
+    <row r="616" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A616" s="28">
         <v>4</v>
       </c>
@@ -23409,7 +23366,7 @@
       </c>
       <c r="I616"/>
     </row>
-    <row r="617" spans="1:9" ht="16">
+    <row r="617" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A617" s="28">
         <v>4</v>
       </c>
@@ -23418,7 +23375,7 @@
       </c>
       <c r="I617"/>
     </row>
-    <row r="618" spans="1:9" ht="17" thickBot="1">
+    <row r="618" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A618" s="28">
         <v>4</v>
       </c>
@@ -23448,7 +23405,7 @@
       <selection pane="bottomRight" activeCell="E130" sqref="E130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.83203125" style="6" customWidth="1"/>
     <col min="2" max="2" width="29.83203125" style="6" customWidth="1"/>
@@ -23773,7 +23730,7 @@
     <col min="16109" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30.75" customHeight="1">
+    <row r="1" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="65" t="s">
         <v>166</v>
       </c>
@@ -23782,21 +23739,21 @@
       <c r="D1" s="65"/>
       <c r="E1" s="65"/>
     </row>
-    <row r="2" spans="1:6" ht="13" customHeight="1">
+    <row r="2" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" s="8" customFormat="1" ht="24" customHeight="1" thickBot="1">
+    <row r="3" spans="1:6" s="8" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="66" t="s">
         <v>167</v>
       </c>
       <c r="B3" s="66"/>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:6" ht="24" customHeight="1">
+    <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>168</v>
       </c>
@@ -23808,7 +23765,7 @@
       <c r="E4" s="56"/>
       <c r="F4" s="67"/>
     </row>
-    <row r="5" spans="1:6" ht="24" customHeight="1">
+    <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>169</v>
       </c>
@@ -23820,7 +23777,7 @@
       <c r="E5" s="60"/>
       <c r="F5" s="64"/>
     </row>
-    <row r="6" spans="1:6" ht="33.75" customHeight="1">
+    <row r="6" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>171</v>
       </c>
@@ -23832,7 +23789,7 @@
       <c r="E6" s="60"/>
       <c r="F6" s="64"/>
     </row>
-    <row r="7" spans="1:6" ht="41" customHeight="1">
+    <row r="7" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>173</v>
       </c>
@@ -23844,7 +23801,7 @@
       <c r="E7" s="60"/>
       <c r="F7" s="64"/>
     </row>
-    <row r="8" spans="1:6" ht="36" customHeight="1">
+    <row r="8" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>175</v>
       </c>
@@ -23864,7 +23821,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="20" customHeight="1">
+    <row r="9" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="49" t="s">
         <v>181</v>
       </c>
@@ -23884,7 +23841,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="20" customHeight="1">
+    <row r="10" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="50"/>
       <c r="B10" s="12" t="s">
         <v>6</v>
@@ -23902,7 +23859,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="20" customHeight="1">
+    <row r="11" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="50"/>
       <c r="B11" s="12" t="s">
         <v>8</v>
@@ -23920,7 +23877,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="20" customHeight="1">
+    <row r="12" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="50"/>
       <c r="B12" s="12" t="s">
         <v>9</v>
@@ -23938,7 +23895,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="20" customHeight="1">
+    <row r="13" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="50"/>
       <c r="B13" s="12" t="s">
         <v>10</v>
@@ -23956,7 +23913,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="20" customHeight="1">
+    <row r="14" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="50"/>
       <c r="B14" s="12" t="s">
         <v>11</v>
@@ -23974,7 +23931,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="20" customHeight="1">
+    <row r="15" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="50"/>
       <c r="B15" s="12" t="s">
         <v>12</v>
@@ -23992,7 +23949,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="20" customHeight="1">
+    <row r="16" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="50"/>
       <c r="B16" s="12" t="s">
         <v>13</v>
@@ -24010,7 +23967,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="20" customHeight="1">
+    <row r="17" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="50"/>
       <c r="B17" s="12" t="s">
         <v>15</v>
@@ -24028,7 +23985,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="20" customHeight="1">
+    <row r="18" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="50"/>
       <c r="B18" s="12" t="s">
         <v>17</v>
@@ -24046,7 +24003,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="20" customHeight="1">
+    <row r="19" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="50"/>
       <c r="B19" s="12" t="s">
         <v>18</v>
@@ -24064,7 +24021,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="20" customHeight="1">
+    <row r="20" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="50"/>
       <c r="B20" s="12" t="s">
         <v>19</v>
@@ -24082,7 +24039,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="20" customHeight="1">
+    <row r="21" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="50"/>
       <c r="B21" s="12" t="s">
         <v>20</v>
@@ -24100,7 +24057,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="20" customHeight="1">
+    <row r="22" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="50"/>
       <c r="B22" s="12" t="s">
         <v>22</v>
@@ -24118,7 +24075,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="20" customHeight="1">
+    <row r="23" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="50"/>
       <c r="B23" s="12" t="s">
         <v>23</v>
@@ -24136,7 +24093,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="20" customHeight="1">
+    <row r="24" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="50"/>
       <c r="B24" s="12" t="s">
         <v>27</v>
@@ -24154,7 +24111,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="20" customHeight="1">
+    <row r="25" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="50"/>
       <c r="B25" s="12" t="s">
         <v>28</v>
@@ -24172,7 +24129,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="20" customHeight="1">
+    <row r="26" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="50"/>
       <c r="B26" s="12" t="s">
         <v>29</v>
@@ -24190,7 +24147,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="20" customHeight="1">
+    <row r="27" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="50"/>
       <c r="B27" s="12" t="s">
         <v>30</v>
@@ -24208,7 +24165,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="20" customHeight="1">
+    <row r="28" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="50"/>
       <c r="B28" s="12" t="s">
         <v>31</v>
@@ -24226,7 +24183,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="20" customHeight="1">
+    <row r="29" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="50"/>
       <c r="B29" s="12" t="s">
         <v>32</v>
@@ -24244,7 +24201,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="20" customHeight="1">
+    <row r="30" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="50"/>
       <c r="B30" s="12" t="s">
         <v>33</v>
@@ -24262,7 +24219,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="20" customHeight="1">
+    <row r="31" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="50"/>
       <c r="B31" s="12" t="s">
         <v>34</v>
@@ -24280,7 +24237,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="20" customHeight="1">
+    <row r="32" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="50"/>
       <c r="B32" s="12" t="s">
         <v>35</v>
@@ -24298,7 +24255,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="20" customHeight="1">
+    <row r="33" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="50"/>
       <c r="B33" s="12" t="s">
         <v>36</v>
@@ -24316,7 +24273,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="20" customHeight="1">
+    <row r="34" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="50"/>
       <c r="B34" s="12" t="s">
         <v>37</v>
@@ -24334,7 +24291,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="20" customHeight="1">
+    <row r="35" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="50"/>
       <c r="B35" s="12" t="s">
         <v>38</v>
@@ -24352,7 +24309,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="20" customHeight="1">
+    <row r="36" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="50"/>
       <c r="B36" s="12" t="s">
         <v>39</v>
@@ -24370,7 +24327,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="20" customHeight="1">
+    <row r="37" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="50"/>
       <c r="B37" s="12" t="s">
         <v>40</v>
@@ -24388,7 +24345,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="20" customHeight="1">
+    <row r="38" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="50"/>
       <c r="B38" s="12" t="s">
         <v>41</v>
@@ -24406,7 +24363,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="20" customHeight="1">
+    <row r="39" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="50"/>
       <c r="B39" s="12" t="s">
         <v>42</v>
@@ -24424,7 +24381,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="20" customHeight="1">
+    <row r="40" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="50"/>
       <c r="B40" s="12" t="s">
         <v>43</v>
@@ -24442,7 +24399,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="20" customHeight="1">
+    <row r="41" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="50"/>
       <c r="B41" s="12" t="s">
         <v>44</v>
@@ -24460,7 +24417,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="20" customHeight="1">
+    <row r="42" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="50"/>
       <c r="B42" s="12" t="s">
         <v>45</v>
@@ -24478,7 +24435,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="20" customHeight="1">
+    <row r="43" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="50"/>
       <c r="B43" s="12" t="s">
         <v>46</v>
@@ -24496,7 +24453,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="20" customHeight="1">
+    <row r="44" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="50"/>
       <c r="B44" s="12" t="s">
         <v>47</v>
@@ -24514,7 +24471,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="20" customHeight="1">
+    <row r="45" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="50"/>
       <c r="B45" s="12" t="s">
         <v>48</v>
@@ -24532,7 +24489,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="20" customHeight="1">
+    <row r="46" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="50"/>
       <c r="B46" s="12" t="s">
         <v>49</v>
@@ -24550,7 +24507,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="20" customHeight="1">
+    <row r="47" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="50"/>
       <c r="B47" s="12" t="s">
         <v>50</v>
@@ -24568,7 +24525,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="20" customHeight="1">
+    <row r="48" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="50"/>
       <c r="B48" s="12" t="s">
         <v>51</v>
@@ -24586,7 +24543,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="20" customHeight="1">
+    <row r="49" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="50"/>
       <c r="B49" s="12" t="s">
         <v>52</v>
@@ -24604,7 +24561,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="20" customHeight="1">
+    <row r="50" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="50"/>
       <c r="B50" s="12" t="s">
         <v>53</v>
@@ -24622,7 +24579,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="20" customHeight="1">
+    <row r="51" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="50"/>
       <c r="B51" s="12" t="s">
         <v>54</v>
@@ -24640,7 +24597,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="20" customHeight="1">
+    <row r="52" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="50"/>
       <c r="B52" s="12" t="s">
         <v>55</v>
@@ -24658,7 +24615,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="20" customHeight="1">
+    <row r="53" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="50"/>
       <c r="B53" s="12" t="s">
         <v>56</v>
@@ -24676,7 +24633,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="20" customHeight="1">
+    <row r="54" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="50"/>
       <c r="B54" s="12" t="s">
         <v>57</v>
@@ -24694,7 +24651,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="20" customHeight="1">
+    <row r="55" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="50"/>
       <c r="B55" s="12" t="s">
         <v>58</v>
@@ -24712,7 +24669,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="20" customHeight="1">
+    <row r="56" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="50"/>
       <c r="B56" s="12" t="s">
         <v>59</v>
@@ -24730,7 +24687,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="20" customHeight="1">
+    <row r="57" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="50"/>
       <c r="B57" s="12" t="s">
         <v>60</v>
@@ -24748,7 +24705,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="20" customHeight="1">
+    <row r="58" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="50"/>
       <c r="B58" s="12" t="s">
         <v>61</v>
@@ -24766,7 +24723,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="20" customHeight="1">
+    <row r="59" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="50"/>
       <c r="B59" s="12" t="s">
         <v>62</v>
@@ -24784,7 +24741,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="20" customHeight="1">
+    <row r="60" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="50"/>
       <c r="B60" s="12" t="s">
         <v>63</v>
@@ -24802,7 +24759,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="20" customHeight="1">
+    <row r="61" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="50"/>
       <c r="B61" s="12" t="s">
         <v>64</v>
@@ -24820,7 +24777,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="20" customHeight="1">
+    <row r="62" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="50"/>
       <c r="B62" s="12" t="s">
         <v>65</v>
@@ -24838,7 +24795,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="20" customHeight="1">
+    <row r="63" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="50"/>
       <c r="B63" s="12" t="s">
         <v>66</v>
@@ -24856,7 +24813,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="20" customHeight="1">
+    <row r="64" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="50"/>
       <c r="B64" s="12" t="s">
         <v>67</v>
@@ -24874,7 +24831,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="20" customHeight="1">
+    <row r="65" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="50"/>
       <c r="B65" s="12" t="s">
         <v>68</v>
@@ -24892,7 +24849,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="20" customHeight="1">
+    <row r="66" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="50"/>
       <c r="B66" s="12" t="s">
         <v>69</v>
@@ -24910,7 +24867,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="20" customHeight="1">
+    <row r="67" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="50"/>
       <c r="B67" s="12" t="s">
         <v>70</v>
@@ -24928,7 +24885,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="20" customHeight="1">
+    <row r="68" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="50"/>
       <c r="B68" s="12" t="s">
         <v>71</v>
@@ -24946,7 +24903,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="20" customHeight="1">
+    <row r="69" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="50"/>
       <c r="B69" s="12" t="s">
         <v>72</v>
@@ -24964,7 +24921,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="20" customHeight="1">
+    <row r="70" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="50"/>
       <c r="B70" s="12" t="s">
         <v>73</v>
@@ -24982,7 +24939,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="20" customHeight="1">
+    <row r="71" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="50"/>
       <c r="B71" s="12" t="s">
         <v>74</v>
@@ -25000,7 +24957,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="20" customHeight="1">
+    <row r="72" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="50"/>
       <c r="B72" s="12" t="s">
         <v>75</v>
@@ -25018,7 +24975,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="20" customHeight="1">
+    <row r="73" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="50"/>
       <c r="B73" s="12" t="s">
         <v>76</v>
@@ -25036,7 +24993,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="20" customHeight="1">
+    <row r="74" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="50"/>
       <c r="B74" s="12" t="s">
         <v>77</v>
@@ -25054,7 +25011,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="20" customHeight="1">
+    <row r="75" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="50"/>
       <c r="B75" s="12" t="s">
         <v>78</v>
@@ -25072,7 +25029,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="20" customHeight="1">
+    <row r="76" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="50"/>
       <c r="B76" s="12" t="s">
         <v>79</v>
@@ -25090,7 +25047,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="20" customHeight="1">
+    <row r="77" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="50"/>
       <c r="B77" s="12" t="s">
         <v>80</v>
@@ -25108,7 +25065,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="20" customHeight="1">
+    <row r="78" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="50"/>
       <c r="B78" s="12" t="s">
         <v>81</v>
@@ -25126,7 +25083,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="20" customHeight="1">
+    <row r="79" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="50"/>
       <c r="B79" s="12" t="s">
         <v>82</v>
@@ -25144,7 +25101,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="20" customHeight="1">
+    <row r="80" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="50"/>
       <c r="B80" s="12" t="s">
         <v>83</v>
@@ -25162,7 +25119,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="20" customHeight="1">
+    <row r="81" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="50"/>
       <c r="B81" s="12" t="s">
         <v>84</v>
@@ -25180,7 +25137,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="20" customHeight="1">
+    <row r="82" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="50"/>
       <c r="B82" s="12" t="s">
         <v>85</v>
@@ -25198,7 +25155,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="20" customHeight="1">
+    <row r="83" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="50"/>
       <c r="B83" s="12" t="s">
         <v>86</v>
@@ -25216,7 +25173,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="20" customHeight="1">
+    <row r="84" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="50"/>
       <c r="B84" s="12" t="s">
         <v>87</v>
@@ -25234,7 +25191,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="20" customHeight="1">
+    <row r="85" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="50"/>
       <c r="B85" s="12" t="s">
         <v>88</v>
@@ -25252,7 +25209,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="20" customHeight="1">
+    <row r="86" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="50"/>
       <c r="B86" s="12" t="s">
         <v>89</v>
@@ -25270,7 +25227,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="20" customHeight="1">
+    <row r="87" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="50"/>
       <c r="B87" s="12" t="s">
         <v>90</v>
@@ -25288,7 +25245,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="20" customHeight="1">
+    <row r="88" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="50"/>
       <c r="B88" s="12" t="s">
         <v>91</v>
@@ -25306,7 +25263,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="20" customHeight="1">
+    <row r="89" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="50"/>
       <c r="B89" s="12" t="s">
         <v>92</v>
@@ -25324,7 +25281,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="20" customHeight="1">
+    <row r="90" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="50"/>
       <c r="B90" s="12" t="s">
         <v>93</v>
@@ -25342,7 +25299,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="20" customHeight="1">
+    <row r="91" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="50"/>
       <c r="B91" s="12" t="s">
         <v>94</v>
@@ -25360,7 +25317,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="20" customHeight="1">
+    <row r="92" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="50"/>
       <c r="B92" s="12" t="s">
         <v>95</v>
@@ -25378,7 +25335,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="20" customHeight="1">
+    <row r="93" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="50"/>
       <c r="B93" s="12" t="s">
         <v>96</v>
@@ -25396,7 +25353,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="20" customHeight="1">
+    <row r="94" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="50"/>
       <c r="B94" s="12" t="s">
         <v>97</v>
@@ -25414,7 +25371,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="20" customHeight="1">
+    <row r="95" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="50"/>
       <c r="B95" s="12" t="s">
         <v>98</v>
@@ -25432,7 +25389,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="20" customHeight="1">
+    <row r="96" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="50"/>
       <c r="B96" s="12" t="s">
         <v>99</v>
@@ -25450,7 +25407,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="20" customHeight="1">
+    <row r="97" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="50"/>
       <c r="B97" s="12" t="s">
         <v>100</v>
@@ -25468,7 +25425,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="20" customHeight="1">
+    <row r="98" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="50"/>
       <c r="B98" s="12" t="s">
         <v>101</v>
@@ -25486,7 +25443,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="20" customHeight="1">
+    <row r="99" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="50"/>
       <c r="B99" s="12" t="s">
         <v>103</v>
@@ -25504,7 +25461,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="20" customHeight="1">
+    <row r="100" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="50"/>
       <c r="B100" s="12" t="s">
         <v>104</v>
@@ -25522,7 +25479,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="20" customHeight="1">
+    <row r="101" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="50"/>
       <c r="B101" s="12" t="s">
         <v>105</v>
@@ -25540,7 +25497,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="20" customHeight="1">
+    <row r="102" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="50"/>
       <c r="B102" s="12" t="s">
         <v>106</v>
@@ -25558,7 +25515,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="20" customHeight="1">
+    <row r="103" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="50"/>
       <c r="B103" s="12" t="s">
         <v>107</v>
@@ -25576,7 +25533,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="20" customHeight="1">
+    <row r="104" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="50"/>
       <c r="B104" s="12" t="s">
         <v>108</v>
@@ -25594,7 +25551,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="20" customHeight="1">
+    <row r="105" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="50"/>
       <c r="B105" s="12" t="s">
         <v>111</v>
@@ -25612,7 +25569,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="20" customHeight="1">
+    <row r="106" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="50"/>
       <c r="B106" s="12" t="s">
         <v>114</v>
@@ -25630,7 +25587,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="20" customHeight="1">
+    <row r="107" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="50"/>
       <c r="B107" s="12" t="s">
         <v>116</v>
@@ -25648,7 +25605,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="20" customHeight="1">
+    <row r="108" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="50"/>
       <c r="B108" s="12" t="s">
         <v>118</v>
@@ -25666,7 +25623,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="20" customHeight="1">
+    <row r="109" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="50"/>
       <c r="B109" s="12" t="s">
         <v>121</v>
@@ -25684,7 +25641,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="20" customHeight="1">
+    <row r="110" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="50"/>
       <c r="B110" s="12" t="s">
         <v>123</v>
@@ -25702,7 +25659,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="20" customHeight="1">
+    <row r="111" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="50"/>
       <c r="B111" s="12" t="s">
         <v>124</v>
@@ -25720,7 +25677,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="20" customHeight="1">
+    <row r="112" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="50"/>
       <c r="B112" s="12" t="s">
         <v>126</v>
@@ -25738,7 +25695,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="20" customHeight="1">
+    <row r="113" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="50"/>
       <c r="B113" s="12" t="s">
         <v>130</v>
@@ -25756,7 +25713,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="20" customHeight="1">
+    <row r="114" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="50"/>
       <c r="B114" s="12" t="s">
         <v>132</v>
@@ -25774,7 +25731,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="20" customHeight="1">
+    <row r="115" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="50"/>
       <c r="B115" s="12" t="s">
         <v>133</v>
@@ -25792,7 +25749,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="20" customHeight="1">
+    <row r="116" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="50"/>
       <c r="B116" s="12" t="s">
         <v>134</v>
@@ -25810,7 +25767,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="20" customHeight="1">
+    <row r="117" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="50"/>
       <c r="B117" s="12" t="s">
         <v>135</v>
@@ -25828,7 +25785,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="20" customHeight="1">
+    <row r="118" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="50"/>
       <c r="B118" s="12" t="s">
         <v>137</v>
@@ -25846,7 +25803,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="20" customHeight="1">
+    <row r="119" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="50"/>
       <c r="B119" s="12" t="s">
         <v>140</v>
@@ -25864,7 +25821,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="20" customHeight="1">
+    <row r="120" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="50"/>
       <c r="B120" s="12" t="s">
         <v>146</v>
@@ -25882,7 +25839,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="20" customHeight="1" thickBot="1">
+    <row r="121" spans="1:6" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="51"/>
       <c r="B121" s="16" t="s">
         <v>150</v>
@@ -25900,14 +25857,14 @@
         <v>183</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="17" customHeight="1">
+    <row r="122" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="52"/>
       <c r="B122" s="52"/>
       <c r="C122" s="52"/>
       <c r="D122" s="52"/>
       <c r="E122" s="52"/>
     </row>
-    <row r="123" spans="1:6" ht="32" customHeight="1" thickBot="1">
+    <row r="123" spans="1:6" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="53" t="s">
         <v>186</v>
       </c>
@@ -25916,7 +25873,7 @@
       <c r="D123" s="53"/>
       <c r="E123" s="53"/>
     </row>
-    <row r="124" spans="1:6" ht="30.75" customHeight="1">
+    <row r="124" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="54" t="s">
         <v>187</v>
       </c>
@@ -25932,7 +25889,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="30.75" customHeight="1">
+    <row r="125" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="57" t="s">
         <v>191</v>
       </c>
@@ -25946,7 +25903,7 @@
       </c>
       <c r="F125" s="13"/>
     </row>
-    <row r="126" spans="1:6" ht="30.75" customHeight="1">
+    <row r="126" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="57" t="s">
         <v>194</v>
       </c>
@@ -25960,7 +25917,7 @@
       </c>
       <c r="F126" s="13"/>
     </row>
-    <row r="127" spans="1:6" ht="30.75" customHeight="1">
+    <row r="127" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="57" t="s">
         <v>196</v>
       </c>
@@ -25974,7 +25931,7 @@
       </c>
       <c r="F127" s="13"/>
     </row>
-    <row r="128" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
+    <row r="128" spans="1:6" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="61" t="s">
         <v>198</v>
       </c>
@@ -25986,7 +25943,7 @@
       </c>
       <c r="F128" s="22"/>
     </row>
-    <row r="129" spans="1:6" ht="30.75" customHeight="1">
+    <row r="129" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="23" t="s">
         <v>199</v>
       </c>
